--- a/Fake Folder copy/Accounts and Biz Dev/Recurring/Reseller Report/CSVs/Reseller Exclude.xlsx
+++ b/Fake Folder copy/Accounts and Biz Dev/Recurring/Reseller Report/CSVs/Reseller Exclude.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarad/Fake Folder/Accounts and Biz Dev/Recurring/Reseller Report/CSVs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412AA801-22E7-6545-A0AC-A36998A5621F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFB6871-0758-3540-A09E-13139504208A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="2960" windowWidth="25760" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11873" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13023" uniqueCount="605">
   <si>
     <t>reseller</t>
   </si>
@@ -1841,12 +1841,18 @@
   <si>
     <t>Distrelec</t>
   </si>
+  <si>
+    <t>Eckstein</t>
+  </si>
+  <si>
+    <t>Micro Center</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1956,6 +1962,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1983,7 +1997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2063,6 +2077,15 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2367,10 +2390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11179"/>
+  <dimension ref="A1:H12329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10821" workbookViewId="0">
-      <selection activeCell="E10827" sqref="E10827"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2379,7 +2402,7 @@
     <col min="2" max="2" width="25" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>596</v>
       </c>
@@ -2387,111 +2410,124 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3">
         <v>1833</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>3013</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>2472</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>1085</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>1782</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>2348</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>2130</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>1334</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>1904</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>2652</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <v>254</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>3517</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>2769</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="5">
         <v>3333</v>
       </c>
@@ -2499,7 +2535,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>1201</v>
       </c>
@@ -91809,6 +91845,9206 @@
       </c>
       <c r="B11179" t="s">
         <v>594</v>
+      </c>
+    </row>
+    <row r="11180" spans="1:2">
+      <c r="A11180">
+        <v>3957</v>
+      </c>
+      <c r="B11180" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11181" spans="1:2">
+      <c r="A11181">
+        <v>4026</v>
+      </c>
+      <c r="B11181" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11182" spans="1:2">
+      <c r="A11182">
+        <v>4028</v>
+      </c>
+      <c r="B11182" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11183" spans="1:2">
+      <c r="A11183">
+        <v>4037</v>
+      </c>
+      <c r="B11183" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11184" spans="1:2">
+      <c r="A11184">
+        <v>3987</v>
+      </c>
+      <c r="B11184" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11185" spans="1:2">
+      <c r="A11185">
+        <v>1783</v>
+      </c>
+      <c r="B11185" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11186" spans="1:2">
+      <c r="A11186">
+        <v>4059</v>
+      </c>
+      <c r="B11186" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11187" spans="1:2">
+      <c r="A11187">
+        <v>4064</v>
+      </c>
+      <c r="B11187" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11188" spans="1:2">
+      <c r="A11188">
+        <v>877</v>
+      </c>
+      <c r="B11188" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11189" spans="1:2">
+      <c r="A11189">
+        <v>1271</v>
+      </c>
+      <c r="B11189" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11190" spans="1:2">
+      <c r="A11190">
+        <v>1910</v>
+      </c>
+      <c r="B11190" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11191" spans="1:2">
+      <c r="A11191">
+        <v>3957</v>
+      </c>
+      <c r="B11191" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11192" spans="1:2">
+      <c r="A11192">
+        <v>4026</v>
+      </c>
+      <c r="B11192" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11193" spans="1:2">
+      <c r="A11193">
+        <v>4028</v>
+      </c>
+      <c r="B11193" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11194" spans="1:2">
+      <c r="A11194">
+        <v>4037</v>
+      </c>
+      <c r="B11194" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11195" spans="1:2">
+      <c r="A11195">
+        <v>3987</v>
+      </c>
+      <c r="B11195" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11196" spans="1:2">
+      <c r="A11196">
+        <v>3863</v>
+      </c>
+      <c r="B11196" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11197" spans="1:2">
+      <c r="A11197">
+        <v>3922</v>
+      </c>
+      <c r="B11197" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11198" spans="1:2">
+      <c r="A11198">
+        <v>3893</v>
+      </c>
+      <c r="B11198" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11199" spans="1:2">
+      <c r="A11199">
+        <v>3763</v>
+      </c>
+      <c r="B11199" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11200" spans="1:2">
+      <c r="A11200">
+        <v>3858</v>
+      </c>
+      <c r="B11200" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11201" spans="1:2">
+      <c r="A11201">
+        <v>3907</v>
+      </c>
+      <c r="B11201" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11202" spans="1:2">
+      <c r="A11202">
+        <v>860</v>
+      </c>
+      <c r="B11202" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11203" spans="1:2">
+      <c r="A11203">
+        <v>3859</v>
+      </c>
+      <c r="B11203" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11204" spans="1:2">
+      <c r="A11204">
+        <v>3441</v>
+      </c>
+      <c r="B11204" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11205" spans="1:2">
+      <c r="A11205">
+        <v>3768</v>
+      </c>
+      <c r="B11205" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11206" spans="1:2">
+      <c r="A11206">
+        <v>1783</v>
+      </c>
+      <c r="B11206" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11207" spans="1:2">
+      <c r="A11207">
+        <v>4059</v>
+      </c>
+      <c r="B11207" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11208" spans="1:2">
+      <c r="A11208">
+        <v>3440</v>
+      </c>
+      <c r="B11208" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11209" spans="1:2">
+      <c r="A11209">
+        <v>3630</v>
+      </c>
+      <c r="B11209" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11210" spans="1:2">
+      <c r="A11210">
+        <v>3915</v>
+      </c>
+      <c r="B11210" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11211" spans="1:2">
+      <c r="A11211">
+        <v>3491</v>
+      </c>
+      <c r="B11211" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11212" spans="1:2">
+      <c r="A11212">
+        <v>3923</v>
+      </c>
+      <c r="B11212" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11213" spans="1:2">
+      <c r="A11213">
+        <v>3881</v>
+      </c>
+      <c r="B11213" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11214" spans="1:2">
+      <c r="A11214">
+        <v>3802</v>
+      </c>
+      <c r="B11214" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11215" spans="1:2">
+      <c r="A11215">
+        <v>3804</v>
+      </c>
+      <c r="B11215" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11216" spans="1:2">
+      <c r="A11216">
+        <v>3930</v>
+      </c>
+      <c r="B11216" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11217" spans="1:2">
+      <c r="A11217">
+        <v>3961</v>
+      </c>
+      <c r="B11217" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11218" spans="1:2">
+      <c r="A11218">
+        <v>4172</v>
+      </c>
+      <c r="B11218" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11219" spans="1:2">
+      <c r="A11219">
+        <v>4147</v>
+      </c>
+      <c r="B11219" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11220" spans="1:2">
+      <c r="A11220">
+        <v>4162</v>
+      </c>
+      <c r="B11220" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11221" spans="1:2">
+      <c r="A11221">
+        <v>4144</v>
+      </c>
+      <c r="B11221" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11222" spans="1:2">
+      <c r="A11222">
+        <v>4103</v>
+      </c>
+      <c r="B11222" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11223" spans="1:2">
+      <c r="A11223">
+        <v>4146</v>
+      </c>
+      <c r="B11223" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11224" spans="1:2">
+      <c r="A11224">
+        <v>4119</v>
+      </c>
+      <c r="B11224" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11225" spans="1:2">
+      <c r="A11225">
+        <v>4121</v>
+      </c>
+      <c r="B11225" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11226" spans="1:2">
+      <c r="A11226">
+        <v>4095</v>
+      </c>
+      <c r="B11226" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11227" spans="1:2">
+      <c r="A11227">
+        <v>4143</v>
+      </c>
+      <c r="B11227" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11228" spans="1:2">
+      <c r="A11228">
+        <v>4142</v>
+      </c>
+      <c r="B11228" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11229" spans="1:2">
+      <c r="A11229">
+        <v>4111</v>
+      </c>
+      <c r="B11229" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11230" spans="1:2">
+      <c r="A11230">
+        <v>4130</v>
+      </c>
+      <c r="B11230" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11231" spans="1:2">
+      <c r="A11231">
+        <v>904</v>
+      </c>
+      <c r="B11231" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11232" spans="1:2">
+      <c r="A11232">
+        <v>935</v>
+      </c>
+      <c r="B11232" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11233" spans="1:2">
+      <c r="A11233">
+        <v>1875</v>
+      </c>
+      <c r="B11233" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11234" spans="1:2">
+      <c r="A11234">
+        <v>3386</v>
+      </c>
+      <c r="B11234" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11235" spans="1:2">
+      <c r="A11235">
+        <v>3709</v>
+      </c>
+      <c r="B11235" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11236" spans="1:2">
+      <c r="A11236">
+        <v>3900</v>
+      </c>
+      <c r="B11236" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11237" spans="1:2">
+      <c r="A11237">
+        <v>3857</v>
+      </c>
+      <c r="B11237" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11238" spans="1:2">
+      <c r="A11238">
+        <v>2741</v>
+      </c>
+      <c r="B11238" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11239" spans="1:2">
+      <c r="A11239">
+        <v>3800</v>
+      </c>
+      <c r="B11239" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11240" spans="1:2">
+      <c r="A11240">
+        <v>3093</v>
+      </c>
+      <c r="B11240" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11241" spans="1:2">
+      <c r="A11241">
+        <v>1995</v>
+      </c>
+      <c r="B11241" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11242" spans="1:2">
+      <c r="A11242">
+        <v>3082</v>
+      </c>
+      <c r="B11242" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11243" spans="1:2">
+      <c r="A11243">
+        <v>3083</v>
+      </c>
+      <c r="B11243" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11244" spans="1:2">
+      <c r="A11244">
+        <v>3863</v>
+      </c>
+      <c r="B11244" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11245" spans="1:2">
+      <c r="A11245">
+        <v>3252</v>
+      </c>
+      <c r="B11245" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11246" spans="1:2">
+      <c r="A11246">
+        <v>3777</v>
+      </c>
+      <c r="B11246" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11247" spans="1:2">
+      <c r="A11247">
+        <v>705</v>
+      </c>
+      <c r="B11247" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11248" spans="1:2">
+      <c r="A11248">
+        <v>2055</v>
+      </c>
+      <c r="B11248" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11249" spans="1:2">
+      <c r="A11249">
+        <v>3898</v>
+      </c>
+      <c r="B11249" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11250" spans="1:2">
+      <c r="A11250">
+        <v>153</v>
+      </c>
+      <c r="B11250" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11251" spans="1:2">
+      <c r="A11251">
+        <v>2094</v>
+      </c>
+      <c r="B11251" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11252" spans="1:2">
+      <c r="A11252">
+        <v>466</v>
+      </c>
+      <c r="B11252" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11253" spans="1:2">
+      <c r="A11253">
+        <v>3435</v>
+      </c>
+      <c r="B11253" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11254" spans="1:2">
+      <c r="A11254">
+        <v>3954</v>
+      </c>
+      <c r="B11254" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11255" spans="1:2">
+      <c r="A11255">
+        <v>3201</v>
+      </c>
+      <c r="B11255" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11256" spans="1:2">
+      <c r="A11256">
+        <v>3671</v>
+      </c>
+      <c r="B11256" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11257" spans="1:2">
+      <c r="A11257">
+        <v>1764</v>
+      </c>
+      <c r="B11257" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11258" spans="1:2">
+      <c r="A11258">
+        <v>2217</v>
+      </c>
+      <c r="B11258" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11259" spans="1:2">
+      <c r="A11259">
+        <v>1487</v>
+      </c>
+      <c r="B11259" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11260" spans="1:2">
+      <c r="A11260">
+        <v>3964</v>
+      </c>
+      <c r="B11260" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11261" spans="1:2">
+      <c r="A11261">
+        <v>908</v>
+      </c>
+      <c r="B11261" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11262" spans="1:2">
+      <c r="A11262">
+        <v>909</v>
+      </c>
+      <c r="B11262" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11263" spans="1:2">
+      <c r="A11263">
+        <v>1675</v>
+      </c>
+      <c r="B11263" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11264" spans="1:2">
+      <c r="A11264">
+        <v>261</v>
+      </c>
+      <c r="B11264" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11265" spans="1:2">
+      <c r="A11265">
+        <v>851</v>
+      </c>
+      <c r="B11265" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11266" spans="1:2">
+      <c r="A11266">
+        <v>727</v>
+      </c>
+      <c r="B11266" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11267" spans="1:2">
+      <c r="A11267">
+        <v>2880</v>
+      </c>
+      <c r="B11267" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11268" spans="1:2">
+      <c r="A11268">
+        <v>1390</v>
+      </c>
+      <c r="B11268" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11269" spans="1:2">
+      <c r="A11269">
+        <v>3377</v>
+      </c>
+      <c r="B11269" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11270" spans="1:2">
+      <c r="A11270">
+        <v>3492</v>
+      </c>
+      <c r="B11270" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11271" spans="1:2">
+      <c r="A11271">
+        <v>3966</v>
+      </c>
+      <c r="B11271" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11272" spans="1:2">
+      <c r="A11272">
+        <v>1120</v>
+      </c>
+      <c r="B11272" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11273" spans="1:2">
+      <c r="A11273">
+        <v>1552</v>
+      </c>
+      <c r="B11273" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11274" spans="1:2">
+      <c r="A11274">
+        <v>2478</v>
+      </c>
+      <c r="B11274" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11275" spans="1:2">
+      <c r="A11275">
+        <v>1897</v>
+      </c>
+      <c r="B11275" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11276" spans="1:2">
+      <c r="A11276">
+        <v>1777</v>
+      </c>
+      <c r="B11276" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11277" spans="1:2">
+      <c r="A11277">
+        <v>2927</v>
+      </c>
+      <c r="B11277" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11278" spans="1:2">
+      <c r="A11278">
+        <v>1697</v>
+      </c>
+      <c r="B11278" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11279" spans="1:2">
+      <c r="A11279">
+        <v>1008</v>
+      </c>
+      <c r="B11279" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11280" spans="1:2">
+      <c r="A11280">
+        <v>1608</v>
+      </c>
+      <c r="B11280" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11281" spans="1:2">
+      <c r="A11281">
+        <v>3440</v>
+      </c>
+      <c r="B11281" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11282" spans="1:2">
+      <c r="A11282">
+        <v>3320</v>
+      </c>
+      <c r="B11282" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11283" spans="1:2">
+      <c r="A11283">
+        <v>1389</v>
+      </c>
+      <c r="B11283" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11284" spans="1:2">
+      <c r="A11284">
+        <v>1661</v>
+      </c>
+      <c r="B11284" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11285" spans="1:2">
+      <c r="A11285">
+        <v>2343</v>
+      </c>
+      <c r="B11285" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11286" spans="1:2">
+      <c r="A11286">
+        <v>3942</v>
+      </c>
+      <c r="B11286" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11287" spans="1:2">
+      <c r="A11287">
+        <v>1001</v>
+      </c>
+      <c r="B11287" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11288" spans="1:2">
+      <c r="A11288">
+        <v>387</v>
+      </c>
+      <c r="B11288" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11289" spans="1:2">
+      <c r="A11289">
+        <v>3463</v>
+      </c>
+      <c r="B11289" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11290" spans="1:2">
+      <c r="A11290">
+        <v>4026</v>
+      </c>
+      <c r="B11290" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11291" spans="1:2">
+      <c r="A11291">
+        <v>1862</v>
+      </c>
+      <c r="B11291" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11292" spans="1:2">
+      <c r="A11292">
+        <v>1312</v>
+      </c>
+      <c r="B11292" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11293" spans="1:2">
+      <c r="A11293">
+        <v>2050</v>
+      </c>
+      <c r="B11293" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11294" spans="1:2">
+      <c r="A11294">
+        <v>931</v>
+      </c>
+      <c r="B11294" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11295" spans="1:2">
+      <c r="A11295">
+        <v>2190</v>
+      </c>
+      <c r="B11295" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11296" spans="1:2">
+      <c r="A11296">
+        <v>1758</v>
+      </c>
+      <c r="B11296" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11297" spans="1:2">
+      <c r="A11297">
+        <v>334</v>
+      </c>
+      <c r="B11297" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11298" spans="1:2">
+      <c r="A11298">
+        <v>1480</v>
+      </c>
+      <c r="B11298" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11299" spans="1:2">
+      <c r="A11299">
+        <v>373</v>
+      </c>
+      <c r="B11299" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11300" spans="1:2">
+      <c r="A11300">
+        <v>3318</v>
+      </c>
+      <c r="B11300" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11301" spans="1:2">
+      <c r="A11301">
+        <v>1131</v>
+      </c>
+      <c r="B11301" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11302" spans="1:2">
+      <c r="A11302">
+        <v>743</v>
+      </c>
+      <c r="B11302" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11303" spans="1:2">
+      <c r="A11303">
+        <v>3915</v>
+      </c>
+      <c r="B11303" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11304" spans="1:2">
+      <c r="A11304">
+        <v>3522</v>
+      </c>
+      <c r="B11304" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11305" spans="1:2">
+      <c r="A11305">
+        <v>2819</v>
+      </c>
+      <c r="B11305" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11306" spans="1:2">
+      <c r="A11306">
+        <v>1663</v>
+      </c>
+      <c r="B11306" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11307" spans="1:2">
+      <c r="A11307">
+        <v>1767</v>
+      </c>
+      <c r="B11307" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11308" spans="1:2">
+      <c r="A11308">
+        <v>1592</v>
+      </c>
+      <c r="B11308" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11309" spans="1:2">
+      <c r="A11309">
+        <v>3377</v>
+      </c>
+      <c r="B11309" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11310" spans="1:2">
+      <c r="A11310">
+        <v>3954</v>
+      </c>
+      <c r="B11310" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11311" spans="1:2">
+      <c r="A11311">
+        <v>3966</v>
+      </c>
+      <c r="B11311" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11312" spans="1:2">
+      <c r="A11312">
+        <v>3964</v>
+      </c>
+      <c r="B11312" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11313" spans="1:2">
+      <c r="A11313">
+        <v>3965</v>
+      </c>
+      <c r="B11313" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11314" spans="1:2">
+      <c r="A11314">
+        <v>3928</v>
+      </c>
+      <c r="B11314" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11315" spans="1:2">
+      <c r="A11315">
+        <v>3515</v>
+      </c>
+      <c r="B11315" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11316" spans="1:2">
+      <c r="A11316">
+        <v>3657</v>
+      </c>
+      <c r="B11316" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11317" spans="1:2">
+      <c r="A11317">
+        <v>1743</v>
+      </c>
+      <c r="B11317" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11318" spans="1:2">
+      <c r="A11318">
+        <v>3975</v>
+      </c>
+      <c r="B11318" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11319" spans="1:2">
+      <c r="A11319">
+        <v>3863</v>
+      </c>
+      <c r="B11319" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11320" spans="1:2">
+      <c r="A11320">
+        <v>3942</v>
+      </c>
+      <c r="B11320" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11321" spans="1:2">
+      <c r="A11321">
+        <v>1583</v>
+      </c>
+      <c r="B11321" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11322" spans="1:2">
+      <c r="A11322">
+        <v>3341</v>
+      </c>
+      <c r="B11322" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11323" spans="1:2">
+      <c r="A11323">
+        <v>3871</v>
+      </c>
+      <c r="B11323" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11324" spans="1:2">
+      <c r="A11324">
+        <v>3022</v>
+      </c>
+      <c r="B11324" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11325" spans="1:2">
+      <c r="A11325">
+        <v>3847</v>
+      </c>
+      <c r="B11325" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11326" spans="1:2">
+      <c r="A11326">
+        <v>3910</v>
+      </c>
+      <c r="B11326" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11327" spans="1:2">
+      <c r="A11327">
+        <v>3882</v>
+      </c>
+      <c r="B11327" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11328" spans="1:2">
+      <c r="A11328">
+        <v>3881</v>
+      </c>
+      <c r="B11328" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11329" spans="1:2">
+      <c r="A11329">
+        <v>3988</v>
+      </c>
+      <c r="B11329" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11330" spans="1:2">
+      <c r="A11330">
+        <v>4026</v>
+      </c>
+      <c r="B11330" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11331" spans="1:2">
+      <c r="A11331">
+        <v>2947</v>
+      </c>
+      <c r="B11331" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11332" spans="1:2">
+      <c r="A11332">
+        <v>1048</v>
+      </c>
+      <c r="B11332" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11333" spans="1:2">
+      <c r="A11333">
+        <v>3957</v>
+      </c>
+      <c r="B11333" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11334" spans="1:2">
+      <c r="A11334">
+        <v>877</v>
+      </c>
+      <c r="B11334" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11335" spans="1:2">
+      <c r="A11335">
+        <v>3364</v>
+      </c>
+      <c r="B11335" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11336" spans="1:2">
+      <c r="A11336">
+        <v>2972</v>
+      </c>
+      <c r="B11336" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11337" spans="1:2">
+      <c r="A11337">
+        <v>4037</v>
+      </c>
+      <c r="B11337" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11338" spans="1:2">
+      <c r="A11338">
+        <v>3136</v>
+      </c>
+      <c r="B11338" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11339" spans="1:2">
+      <c r="A11339">
+        <v>3440</v>
+      </c>
+      <c r="B11339" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11340" spans="1:2">
+      <c r="A11340">
+        <v>3915</v>
+      </c>
+      <c r="B11340" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11341" spans="1:2">
+      <c r="A11341">
+        <v>3907</v>
+      </c>
+      <c r="B11341" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11342" spans="1:2">
+      <c r="A11342">
+        <v>3441</v>
+      </c>
+      <c r="B11342" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11343" spans="1:2">
+      <c r="A11343">
+        <v>3447</v>
+      </c>
+      <c r="B11343" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11344" spans="1:2">
+      <c r="A11344">
+        <v>3448</v>
+      </c>
+      <c r="B11344" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11345" spans="1:2">
+      <c r="A11345">
+        <v>3923</v>
+      </c>
+      <c r="B11345" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11346" spans="1:2">
+      <c r="A11346">
+        <v>3945</v>
+      </c>
+      <c r="B11346" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11347" spans="1:2">
+      <c r="A11347">
+        <v>1271</v>
+      </c>
+      <c r="B11347" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11348" spans="1:2">
+      <c r="A11348">
+        <v>1910</v>
+      </c>
+      <c r="B11348" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11349" spans="1:2">
+      <c r="A11349">
+        <v>3163</v>
+      </c>
+      <c r="B11349" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11350" spans="1:2">
+      <c r="A11350">
+        <v>3305</v>
+      </c>
+      <c r="B11350" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11351" spans="1:2">
+      <c r="A11351">
+        <v>3045</v>
+      </c>
+      <c r="B11351" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11352" spans="1:2">
+      <c r="A11352">
+        <v>4086</v>
+      </c>
+      <c r="B11352" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11353" spans="1:2">
+      <c r="A11353">
+        <v>4074</v>
+      </c>
+      <c r="B11353" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11354" spans="1:2">
+      <c r="A11354">
+        <v>153</v>
+      </c>
+      <c r="B11354" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11355" spans="1:2">
+      <c r="A11355">
+        <v>3568</v>
+      </c>
+      <c r="B11355" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11356" spans="1:2">
+      <c r="A11356">
+        <v>3058</v>
+      </c>
+      <c r="B11356" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11357" spans="1:2">
+      <c r="A11357">
+        <v>1294</v>
+      </c>
+      <c r="B11357" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11358" spans="1:2">
+      <c r="A11358">
+        <v>4019</v>
+      </c>
+      <c r="B11358" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11359" spans="1:2">
+      <c r="A11359">
+        <v>3961</v>
+      </c>
+      <c r="B11359" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11360" spans="1:2">
+      <c r="A11360">
+        <v>3917</v>
+      </c>
+      <c r="B11360" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11361" spans="1:2">
+      <c r="A11361">
+        <v>3992</v>
+      </c>
+      <c r="B11361" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11362" spans="1:2">
+      <c r="A11362">
+        <v>4034</v>
+      </c>
+      <c r="B11362" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11363" spans="1:2">
+      <c r="A11363">
+        <v>4062</v>
+      </c>
+      <c r="B11363" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11364" spans="1:2">
+      <c r="A11364">
+        <v>3044</v>
+      </c>
+      <c r="B11364" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11365" spans="1:2">
+      <c r="A11365">
+        <v>4072</v>
+      </c>
+      <c r="B11365" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11366" spans="1:2">
+      <c r="A11366">
+        <v>4064</v>
+      </c>
+      <c r="B11366" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11367" spans="1:2">
+      <c r="A11367">
+        <v>4075</v>
+      </c>
+      <c r="B11367" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11368" spans="1:2">
+      <c r="A11368">
+        <v>4073</v>
+      </c>
+      <c r="B11368" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11369" spans="1:2">
+      <c r="A11369">
+        <v>907</v>
+      </c>
+      <c r="B11369" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11370" spans="1:2">
+      <c r="A11370">
+        <v>794</v>
+      </c>
+      <c r="B11370" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11371" spans="1:2">
+      <c r="A11371">
+        <v>3950</v>
+      </c>
+      <c r="B11371" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11372" spans="1:2">
+      <c r="A11372">
+        <v>3870</v>
+      </c>
+      <c r="B11372" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11373" spans="1:2">
+      <c r="A11373">
+        <v>501</v>
+      </c>
+      <c r="B11373" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11374" spans="1:2">
+      <c r="A11374">
+        <v>3955</v>
+      </c>
+      <c r="B11374" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11375" spans="1:2">
+      <c r="A11375">
+        <v>3692</v>
+      </c>
+      <c r="B11375" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11376" spans="1:2">
+      <c r="A11376">
+        <v>3763</v>
+      </c>
+      <c r="B11376" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11377" spans="1:2">
+      <c r="A11377">
+        <v>3319</v>
+      </c>
+      <c r="B11377" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11378" spans="1:2">
+      <c r="A11378">
+        <v>4007</v>
+      </c>
+      <c r="B11378" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11379" spans="1:2">
+      <c r="A11379">
+        <v>3975</v>
+      </c>
+      <c r="B11379" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11380" spans="1:2">
+      <c r="A11380">
+        <v>3988</v>
+      </c>
+      <c r="B11380" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11381" spans="1:2">
+      <c r="A11381">
+        <v>1048</v>
+      </c>
+      <c r="B11381" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11382" spans="1:2">
+      <c r="A11382">
+        <v>1271</v>
+      </c>
+      <c r="B11382" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11383" spans="1:2">
+      <c r="A11383">
+        <v>877</v>
+      </c>
+      <c r="B11383" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11384" spans="1:2">
+      <c r="A11384">
+        <v>3364</v>
+      </c>
+      <c r="B11384" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11385" spans="1:2">
+      <c r="A11385">
+        <v>3863</v>
+      </c>
+      <c r="B11385" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11386" spans="1:2">
+      <c r="A11386">
+        <v>3258</v>
+      </c>
+      <c r="B11386" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11387" spans="1:2">
+      <c r="A11387">
+        <v>3814</v>
+      </c>
+      <c r="B11387" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11388" spans="1:2">
+      <c r="A11388">
+        <v>1294</v>
+      </c>
+      <c r="B11388" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11389" spans="1:2">
+      <c r="A11389">
+        <v>3942</v>
+      </c>
+      <c r="B11389" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11390" spans="1:2">
+      <c r="A11390">
+        <v>744</v>
+      </c>
+      <c r="B11390" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11391" spans="1:2">
+      <c r="A11391">
+        <v>2910</v>
+      </c>
+      <c r="B11391" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11392" spans="1:2">
+      <c r="A11392">
+        <v>3484</v>
+      </c>
+      <c r="B11392" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11393" spans="1:2">
+      <c r="A11393">
+        <v>192</v>
+      </c>
+      <c r="B11393" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11394" spans="1:2">
+      <c r="A11394">
+        <v>173</v>
+      </c>
+      <c r="B11394" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11395" spans="1:2">
+      <c r="A11395">
+        <v>3957</v>
+      </c>
+      <c r="B11395" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11396" spans="1:2">
+      <c r="A11396">
+        <v>4026</v>
+      </c>
+      <c r="B11396" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11397" spans="1:2">
+      <c r="A11397">
+        <v>4037</v>
+      </c>
+      <c r="B11397" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11398" spans="1:2">
+      <c r="A11398">
+        <v>1783</v>
+      </c>
+      <c r="B11398" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11399" spans="1:2">
+      <c r="A11399">
+        <v>4058</v>
+      </c>
+      <c r="B11399" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11400" spans="1:2">
+      <c r="A11400">
+        <v>4062</v>
+      </c>
+      <c r="B11400" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11401" spans="1:2">
+      <c r="A11401">
+        <v>4059</v>
+      </c>
+      <c r="B11401" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11402" spans="1:2">
+      <c r="A11402">
+        <v>3953</v>
+      </c>
+      <c r="B11402" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11403" spans="1:2">
+      <c r="A11403">
+        <v>3775</v>
+      </c>
+      <c r="B11403" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11404" spans="1:2">
+      <c r="A11404">
+        <v>3440</v>
+      </c>
+      <c r="B11404" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11405" spans="1:2">
+      <c r="A11405">
+        <v>1730</v>
+      </c>
+      <c r="B11405" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11406" spans="1:2">
+      <c r="A11406">
+        <v>3915</v>
+      </c>
+      <c r="B11406" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11407" spans="1:2">
+      <c r="A11407">
+        <v>3907</v>
+      </c>
+      <c r="B11407" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11408" spans="1:2">
+      <c r="A11408">
+        <v>2914</v>
+      </c>
+      <c r="B11408" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11409" spans="1:2">
+      <c r="A11409">
+        <v>3441</v>
+      </c>
+      <c r="B11409" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11410" spans="1:2">
+      <c r="A11410">
+        <v>1501</v>
+      </c>
+      <c r="B11410" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11411" spans="1:2">
+      <c r="A11411">
+        <v>1586</v>
+      </c>
+      <c r="B11411" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11412" spans="1:2">
+      <c r="A11412">
+        <v>1500</v>
+      </c>
+      <c r="B11412" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11413" spans="1:2">
+      <c r="A11413">
+        <v>2000</v>
+      </c>
+      <c r="B11413" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11414" spans="1:2">
+      <c r="A11414">
+        <v>1304</v>
+      </c>
+      <c r="B11414" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11415" spans="1:2">
+      <c r="A11415">
+        <v>1463</v>
+      </c>
+      <c r="B11415" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11416" spans="1:2">
+      <c r="A11416">
+        <v>2448</v>
+      </c>
+      <c r="B11416" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11417" spans="1:2">
+      <c r="A11417">
+        <v>3295</v>
+      </c>
+      <c r="B11417" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11418" spans="1:2">
+      <c r="A11418">
+        <v>2094</v>
+      </c>
+      <c r="B11418" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11419" spans="1:2">
+      <c r="A11419">
+        <v>1778</v>
+      </c>
+      <c r="B11419" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11420" spans="1:2">
+      <c r="A11420">
+        <v>3083</v>
+      </c>
+      <c r="B11420" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11421" spans="1:2">
+      <c r="A11421">
+        <v>380</v>
+      </c>
+      <c r="B11421" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11422" spans="1:2">
+      <c r="A11422">
+        <v>1592</v>
+      </c>
+      <c r="B11422" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11423" spans="1:2">
+      <c r="A11423">
+        <v>3548</v>
+      </c>
+      <c r="B11423" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11424" spans="1:2">
+      <c r="A11424">
+        <v>3785</v>
+      </c>
+      <c r="B11424" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11425" spans="1:2">
+      <c r="A11425">
+        <v>3853</v>
+      </c>
+      <c r="B11425" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11426" spans="1:2">
+      <c r="A11426">
+        <v>152</v>
+      </c>
+      <c r="B11426" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11427" spans="1:2">
+      <c r="A11427">
+        <v>3058</v>
+      </c>
+      <c r="B11427" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11428" spans="1:2">
+      <c r="A11428">
+        <v>1142</v>
+      </c>
+      <c r="B11428" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11429" spans="1:2">
+      <c r="A11429">
+        <v>504</v>
+      </c>
+      <c r="B11429" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11430" spans="1:2">
+      <c r="A11430">
+        <v>4074</v>
+      </c>
+      <c r="B11430" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11431" spans="1:2">
+      <c r="A11431">
+        <v>4064</v>
+      </c>
+      <c r="B11431" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11432" spans="1:2">
+      <c r="A11432">
+        <v>4072</v>
+      </c>
+      <c r="B11432" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11433" spans="1:2">
+      <c r="A11433">
+        <v>4086</v>
+      </c>
+      <c r="B11433" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11434" spans="1:2">
+      <c r="A11434">
+        <v>4075</v>
+      </c>
+      <c r="B11434" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11435" spans="1:2">
+      <c r="A11435">
+        <v>4073</v>
+      </c>
+      <c r="B11435" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11436" spans="1:2">
+      <c r="A11436">
+        <v>3045</v>
+      </c>
+      <c r="B11436" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11437" spans="1:2">
+      <c r="A11437">
+        <v>3044</v>
+      </c>
+      <c r="B11437" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11438" spans="1:2">
+      <c r="A11438">
+        <v>1995</v>
+      </c>
+      <c r="B11438" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11439" spans="1:2">
+      <c r="A11439">
+        <v>3055</v>
+      </c>
+      <c r="B11439" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11440" spans="1:2">
+      <c r="A11440">
+        <v>3318</v>
+      </c>
+      <c r="B11440" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11441" spans="1:2">
+      <c r="A11441">
+        <v>1769</v>
+      </c>
+      <c r="B11441" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11442" spans="1:2">
+      <c r="A11442">
+        <v>978</v>
+      </c>
+      <c r="B11442" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11443" spans="1:2">
+      <c r="A11443">
+        <v>1954</v>
+      </c>
+      <c r="B11443" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11444" spans="1:2">
+      <c r="A11444">
+        <v>1827</v>
+      </c>
+      <c r="B11444" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11445" spans="1:2">
+      <c r="A11445">
+        <v>737</v>
+      </c>
+      <c r="B11445" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11446" spans="1:2">
+      <c r="A11446">
+        <v>1826</v>
+      </c>
+      <c r="B11446" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11447" spans="1:2">
+      <c r="A11447">
+        <v>3568</v>
+      </c>
+      <c r="B11447" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11448" spans="1:2">
+      <c r="A11448">
+        <v>1586</v>
+      </c>
+      <c r="B11448" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11449" spans="1:2">
+      <c r="A11449">
+        <v>2471</v>
+      </c>
+      <c r="B11449" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11450" spans="1:2">
+      <c r="A11450">
+        <v>2542</v>
+      </c>
+      <c r="B11450" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11451" spans="1:2">
+      <c r="A11451">
+        <v>1875</v>
+      </c>
+      <c r="B11451" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11452" spans="1:2">
+      <c r="A11452">
+        <v>3263</v>
+      </c>
+      <c r="B11452" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11453" spans="1:2">
+      <c r="A11453">
+        <v>938</v>
+      </c>
+      <c r="B11453" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11454" spans="1:2">
+      <c r="A11454">
+        <v>3660</v>
+      </c>
+      <c r="B11454" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11455" spans="1:2">
+      <c r="A11455">
+        <v>1980</v>
+      </c>
+      <c r="B11455" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11456" spans="1:2">
+      <c r="A11456">
+        <v>3297</v>
+      </c>
+      <c r="B11456" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11457" spans="1:2">
+      <c r="A11457">
+        <v>659</v>
+      </c>
+      <c r="B11457" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11458" spans="1:2">
+      <c r="A11458">
+        <v>1689</v>
+      </c>
+      <c r="B11458" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11459" spans="1:2">
+      <c r="A11459">
+        <v>3295</v>
+      </c>
+      <c r="B11459" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11460" spans="1:2">
+      <c r="A11460">
+        <v>358</v>
+      </c>
+      <c r="B11460" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11461" spans="1:2">
+      <c r="A11461">
+        <v>3857</v>
+      </c>
+      <c r="B11461" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11462" spans="1:2">
+      <c r="A11462">
+        <v>3727</v>
+      </c>
+      <c r="B11462" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11463" spans="1:2">
+      <c r="A11463">
+        <v>1260</v>
+      </c>
+      <c r="B11463" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11464" spans="1:2">
+      <c r="A11464">
+        <v>3328</v>
+      </c>
+      <c r="B11464" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11465" spans="1:2">
+      <c r="A11465">
+        <v>2441</v>
+      </c>
+      <c r="B11465" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11466" spans="1:2">
+      <c r="A11466">
+        <v>3709</v>
+      </c>
+      <c r="B11466" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11467" spans="1:2">
+      <c r="A11467">
+        <v>2094</v>
+      </c>
+      <c r="B11467" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11468" spans="1:2">
+      <c r="A11468">
+        <v>3377</v>
+      </c>
+      <c r="B11468" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11469" spans="1:2">
+      <c r="A11469">
+        <v>3078</v>
+      </c>
+      <c r="B11469" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11470" spans="1:2">
+      <c r="A11470">
+        <v>3527</v>
+      </c>
+      <c r="B11470" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11471" spans="1:2">
+      <c r="A11471">
+        <v>3387</v>
+      </c>
+      <c r="B11471" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11472" spans="1:2">
+      <c r="A11472">
+        <v>3072</v>
+      </c>
+      <c r="B11472" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11473" spans="1:2">
+      <c r="A11473">
+        <v>3505</v>
+      </c>
+      <c r="B11473" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11474" spans="1:2">
+      <c r="A11474">
+        <v>3316</v>
+      </c>
+      <c r="B11474" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11475" spans="1:2">
+      <c r="A11475">
+        <v>1752</v>
+      </c>
+      <c r="B11475" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11476" spans="1:2">
+      <c r="A11476">
+        <v>3403</v>
+      </c>
+      <c r="B11476" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11477" spans="1:2">
+      <c r="A11477">
+        <v>2743</v>
+      </c>
+      <c r="B11477" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11478" spans="1:2">
+      <c r="A11478">
+        <v>3435</v>
+      </c>
+      <c r="B11478" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11479" spans="1:2">
+      <c r="A11479">
+        <v>364</v>
+      </c>
+      <c r="B11479" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11480" spans="1:2">
+      <c r="A11480">
+        <v>3191</v>
+      </c>
+      <c r="B11480" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11481" spans="1:2">
+      <c r="A11481">
+        <v>3213</v>
+      </c>
+      <c r="B11481" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11482" spans="1:2">
+      <c r="A11482">
+        <v>2922</v>
+      </c>
+      <c r="B11482" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11483" spans="1:2">
+      <c r="A11483">
+        <v>3800</v>
+      </c>
+      <c r="B11483" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11484" spans="1:2">
+      <c r="A11484">
+        <v>3677</v>
+      </c>
+      <c r="B11484" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11485" spans="1:2">
+      <c r="A11485">
+        <v>1384</v>
+      </c>
+      <c r="B11485" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11486" spans="1:2">
+      <c r="A11486">
+        <v>3463</v>
+      </c>
+      <c r="B11486" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11487" spans="1:2">
+      <c r="A11487">
+        <v>781</v>
+      </c>
+      <c r="B11487" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11488" spans="1:2">
+      <c r="A11488">
+        <v>877</v>
+      </c>
+      <c r="B11488" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11489" spans="1:2">
+      <c r="A11489">
+        <v>1048</v>
+      </c>
+      <c r="B11489" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11490" spans="1:2">
+      <c r="A11490">
+        <v>1271</v>
+      </c>
+      <c r="B11490" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11491" spans="1:2">
+      <c r="A11491">
+        <v>1652</v>
+      </c>
+      <c r="B11491" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11492" spans="1:2">
+      <c r="A11492">
+        <v>1673</v>
+      </c>
+      <c r="B11492" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11493" spans="1:2">
+      <c r="A11493">
+        <v>1743</v>
+      </c>
+      <c r="B11493" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11494" spans="1:2">
+      <c r="A11494">
+        <v>1868</v>
+      </c>
+      <c r="B11494" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11495" spans="1:2">
+      <c r="A11495">
+        <v>1910</v>
+      </c>
+      <c r="B11495" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11496" spans="1:2">
+      <c r="A11496">
+        <v>2090</v>
+      </c>
+      <c r="B11496" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11497" spans="1:2">
+      <c r="A11497">
+        <v>54</v>
+      </c>
+      <c r="B11497" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11498" spans="1:2">
+      <c r="A11498">
+        <v>145</v>
+      </c>
+      <c r="B11498" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11499" spans="1:2">
+      <c r="A11499">
+        <v>159</v>
+      </c>
+      <c r="B11499" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11500" spans="1:2">
+      <c r="A11500">
+        <v>171</v>
+      </c>
+      <c r="B11500" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11501" spans="1:2">
+      <c r="A11501">
+        <v>174</v>
+      </c>
+      <c r="B11501" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11502" spans="1:2">
+      <c r="A11502">
+        <v>175</v>
+      </c>
+      <c r="B11502" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11503" spans="1:2">
+      <c r="A11503">
+        <v>178</v>
+      </c>
+      <c r="B11503" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11504" spans="1:2">
+      <c r="A11504">
+        <v>188</v>
+      </c>
+      <c r="B11504" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11505" spans="1:2">
+      <c r="A11505">
+        <v>236</v>
+      </c>
+      <c r="B11505" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11506" spans="1:2">
+      <c r="A11506">
+        <v>237</v>
+      </c>
+      <c r="B11506" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11507" spans="1:2">
+      <c r="A11507">
+        <v>3964</v>
+      </c>
+      <c r="B11507" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11508" spans="1:2">
+      <c r="A11508">
+        <v>3966</v>
+      </c>
+      <c r="B11508" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11509" spans="1:2">
+      <c r="A11509">
+        <v>3965</v>
+      </c>
+      <c r="B11509" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11510" spans="1:2">
+      <c r="A11510">
+        <v>4026</v>
+      </c>
+      <c r="B11510" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11511" spans="1:2">
+      <c r="A11511">
+        <v>3321</v>
+      </c>
+      <c r="B11511" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11512" spans="1:2">
+      <c r="A11512">
+        <v>3232</v>
+      </c>
+      <c r="B11512" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11513" spans="1:2">
+      <c r="A11513">
+        <v>3036</v>
+      </c>
+      <c r="B11513" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11514" spans="1:2">
+      <c r="A11514">
+        <v>3975</v>
+      </c>
+      <c r="B11514" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11515" spans="1:2">
+      <c r="A11515">
+        <v>3611</v>
+      </c>
+      <c r="B11515" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11516" spans="1:2">
+      <c r="A11516">
+        <v>3249</v>
+      </c>
+      <c r="B11516" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11517" spans="1:2">
+      <c r="A11517">
+        <v>3440</v>
+      </c>
+      <c r="B11517" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11518" spans="1:2">
+      <c r="A11518">
+        <v>3942</v>
+      </c>
+      <c r="B11518" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11519" spans="1:2">
+      <c r="A11519">
+        <v>3907</v>
+      </c>
+      <c r="B11519" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11520" spans="1:2">
+      <c r="A11520">
+        <v>3441</v>
+      </c>
+      <c r="B11520" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11521" spans="1:2">
+      <c r="A11521">
+        <v>3923</v>
+      </c>
+      <c r="B11521" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11522" spans="1:2">
+      <c r="A11522">
+        <v>3811</v>
+      </c>
+      <c r="B11522" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11523" spans="1:2">
+      <c r="A11523">
+        <v>3881</v>
+      </c>
+      <c r="B11523" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11524" spans="1:2">
+      <c r="A11524">
+        <v>2601</v>
+      </c>
+      <c r="B11524" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11525" spans="1:2">
+      <c r="A11525">
+        <v>2508</v>
+      </c>
+      <c r="B11525" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11526" spans="1:2">
+      <c r="A11526">
+        <v>3847</v>
+      </c>
+      <c r="B11526" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11527" spans="1:2">
+      <c r="A11527">
+        <v>2466</v>
+      </c>
+      <c r="B11527" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11528" spans="1:2">
+      <c r="A11528">
+        <v>2468</v>
+      </c>
+      <c r="B11528" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11529" spans="1:2">
+      <c r="A11529">
+        <v>2566</v>
+      </c>
+      <c r="B11529" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11530" spans="1:2">
+      <c r="A11530">
+        <v>2973</v>
+      </c>
+      <c r="B11530" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11531" spans="1:2">
+      <c r="A11531">
+        <v>2974</v>
+      </c>
+      <c r="B11531" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11532" spans="1:2">
+      <c r="A11532">
+        <v>3060</v>
+      </c>
+      <c r="B11532" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11533" spans="1:2">
+      <c r="A11533">
+        <v>3089</v>
+      </c>
+      <c r="B11533" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11534" spans="1:2">
+      <c r="A11534">
+        <v>3090</v>
+      </c>
+      <c r="B11534" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11535" spans="1:2">
+      <c r="A11535">
+        <v>3136</v>
+      </c>
+      <c r="B11535" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11536" spans="1:2">
+      <c r="A11536">
+        <v>3137</v>
+      </c>
+      <c r="B11536" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11537" spans="1:2">
+      <c r="A11537">
+        <v>1294</v>
+      </c>
+      <c r="B11537" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11538" spans="1:2">
+      <c r="A11538">
+        <v>3568</v>
+      </c>
+      <c r="B11538" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11539" spans="1:2">
+      <c r="A11539">
+        <v>2187</v>
+      </c>
+      <c r="B11539" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11540" spans="1:2">
+      <c r="A11540">
+        <v>3785</v>
+      </c>
+      <c r="B11540" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11541" spans="1:2">
+      <c r="A11541">
+        <v>3853</v>
+      </c>
+      <c r="B11541" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11542" spans="1:2">
+      <c r="A11542">
+        <v>3858</v>
+      </c>
+      <c r="B11542" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11543" spans="1:2">
+      <c r="A11543">
+        <v>432</v>
+      </c>
+      <c r="B11543" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11544" spans="1:2">
+      <c r="A11544">
+        <v>152</v>
+      </c>
+      <c r="B11544" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11545" spans="1:2">
+      <c r="A11545">
+        <v>610</v>
+      </c>
+      <c r="B11545" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11546" spans="1:2">
+      <c r="A11546">
+        <v>3058</v>
+      </c>
+      <c r="B11546" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11547" spans="1:2">
+      <c r="A11547">
+        <v>3957</v>
+      </c>
+      <c r="B11547" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11548" spans="1:2">
+      <c r="A11548">
+        <v>4062</v>
+      </c>
+      <c r="B11548" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11549" spans="1:2">
+      <c r="A11549">
+        <v>3045</v>
+      </c>
+      <c r="B11549" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11550" spans="1:2">
+      <c r="A11550">
+        <v>4074</v>
+      </c>
+      <c r="B11550" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11551" spans="1:2">
+      <c r="A11551">
+        <v>3044</v>
+      </c>
+      <c r="B11551" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11552" spans="1:2">
+      <c r="A11552">
+        <v>4072</v>
+      </c>
+      <c r="B11552" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11553" spans="1:2">
+      <c r="A11553">
+        <v>1059</v>
+      </c>
+      <c r="B11553" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11554" spans="1:2">
+      <c r="A11554">
+        <v>3515</v>
+      </c>
+      <c r="B11554" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11555" spans="1:2">
+      <c r="A11555">
+        <v>4064</v>
+      </c>
+      <c r="B11555" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11556" spans="1:2">
+      <c r="A11556">
+        <v>4075</v>
+      </c>
+      <c r="B11556" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11557" spans="1:2">
+      <c r="A11557">
+        <v>3870</v>
+      </c>
+      <c r="B11557" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11558" spans="1:2">
+      <c r="A11558">
+        <v>3766</v>
+      </c>
+      <c r="B11558" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11559" spans="1:2">
+      <c r="A11559">
+        <v>3692</v>
+      </c>
+      <c r="B11559" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11560" spans="1:2">
+      <c r="A11560">
+        <v>3763</v>
+      </c>
+      <c r="B11560" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11561" spans="1:2">
+      <c r="A11561">
+        <v>2463</v>
+      </c>
+      <c r="B11561" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11562" spans="1:2">
+      <c r="A11562">
+        <v>1953</v>
+      </c>
+      <c r="B11562" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11563" spans="1:2">
+      <c r="A11563">
+        <v>4007</v>
+      </c>
+      <c r="B11563" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11564" spans="1:2">
+      <c r="A11564">
+        <v>3259</v>
+      </c>
+      <c r="B11564" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11565" spans="1:2">
+      <c r="A11565">
+        <v>3894</v>
+      </c>
+      <c r="B11565" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11566" spans="1:2">
+      <c r="A11566">
+        <v>3671</v>
+      </c>
+      <c r="B11566" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11567" spans="1:2">
+      <c r="A11567">
+        <v>1551</v>
+      </c>
+      <c r="B11567" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11568" spans="1:2">
+      <c r="A11568">
+        <v>3954</v>
+      </c>
+      <c r="B11568" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11569" spans="1:2">
+      <c r="A11569">
+        <v>3966</v>
+      </c>
+      <c r="B11569" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11570" spans="1:2">
+      <c r="A11570">
+        <v>3964</v>
+      </c>
+      <c r="B11570" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11571" spans="1:2">
+      <c r="A11571">
+        <v>3965</v>
+      </c>
+      <c r="B11571" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11572" spans="1:2">
+      <c r="A11572">
+        <v>3928</v>
+      </c>
+      <c r="B11572" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11573" spans="1:2">
+      <c r="A11573">
+        <v>3321</v>
+      </c>
+      <c r="B11573" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11574" spans="1:2">
+      <c r="A11574">
+        <v>3343</v>
+      </c>
+      <c r="B11574" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11575" spans="1:2">
+      <c r="A11575">
+        <v>3036</v>
+      </c>
+      <c r="B11575" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11576" spans="1:2">
+      <c r="A11576">
+        <v>18</v>
+      </c>
+      <c r="B11576" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11577" spans="1:2">
+      <c r="A11577">
+        <v>46</v>
+      </c>
+      <c r="B11577" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11578" spans="1:2">
+      <c r="A11578">
+        <v>54</v>
+      </c>
+      <c r="B11578" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11579" spans="1:2">
+      <c r="A11579">
+        <v>89</v>
+      </c>
+      <c r="B11579" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11580" spans="1:2">
+      <c r="A11580">
+        <v>123</v>
+      </c>
+      <c r="B11580" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11581" spans="1:2">
+      <c r="A11581">
+        <v>131</v>
+      </c>
+      <c r="B11581" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11582" spans="1:2">
+      <c r="A11582">
+        <v>147</v>
+      </c>
+      <c r="B11582" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11583" spans="1:2">
+      <c r="A11583">
+        <v>150</v>
+      </c>
+      <c r="B11583" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11584" spans="1:2">
+      <c r="A11584">
+        <v>159</v>
+      </c>
+      <c r="B11584" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11585" spans="1:2">
+      <c r="A11585">
+        <v>172</v>
+      </c>
+      <c r="B11585" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11586" spans="1:2">
+      <c r="A11586">
+        <v>3988</v>
+      </c>
+      <c r="B11586" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11587" spans="1:2">
+      <c r="A11587">
+        <v>4026</v>
+      </c>
+      <c r="B11587" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11588" spans="1:2">
+      <c r="A11588">
+        <v>2566</v>
+      </c>
+      <c r="B11588" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11589" spans="1:2">
+      <c r="A11589">
+        <v>3975</v>
+      </c>
+      <c r="B11589" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11590" spans="1:2">
+      <c r="A11590">
+        <v>2090</v>
+      </c>
+      <c r="B11590" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11591" spans="1:2">
+      <c r="A11591">
+        <v>1743</v>
+      </c>
+      <c r="B11591" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11592" spans="1:2">
+      <c r="A11592">
+        <v>3249</v>
+      </c>
+      <c r="B11592" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11593" spans="1:2">
+      <c r="A11593">
+        <v>684</v>
+      </c>
+      <c r="B11593" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11594" spans="1:2">
+      <c r="A11594">
+        <v>1673</v>
+      </c>
+      <c r="B11594" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11595" spans="1:2">
+      <c r="A11595">
+        <v>2947</v>
+      </c>
+      <c r="B11595" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11596" spans="1:2">
+      <c r="A11596">
+        <v>3863</v>
+      </c>
+      <c r="B11596" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11597" spans="1:2">
+      <c r="A11597">
+        <v>3898</v>
+      </c>
+      <c r="B11597" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11598" spans="1:2">
+      <c r="A11598">
+        <v>1294</v>
+      </c>
+      <c r="B11598" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11599" spans="1:2">
+      <c r="A11599">
+        <v>3440</v>
+      </c>
+      <c r="B11599" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11600" spans="1:2">
+      <c r="A11600">
+        <v>3942</v>
+      </c>
+      <c r="B11600" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11601" spans="1:2">
+      <c r="A11601">
+        <v>1478</v>
+      </c>
+      <c r="B11601" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11602" spans="1:2">
+      <c r="A11602">
+        <v>3630</v>
+      </c>
+      <c r="B11602" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11603" spans="1:2">
+      <c r="A11603">
+        <v>3915</v>
+      </c>
+      <c r="B11603" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11604" spans="1:2">
+      <c r="A11604">
+        <v>1784</v>
+      </c>
+      <c r="B11604" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11605" spans="1:2">
+      <c r="A11605">
+        <v>3722</v>
+      </c>
+      <c r="B11605" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11606" spans="1:2">
+      <c r="A11606">
+        <v>877</v>
+      </c>
+      <c r="B11606" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11607" spans="1:2">
+      <c r="A11607">
+        <v>1048</v>
+      </c>
+      <c r="B11607" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11608" spans="1:2">
+      <c r="A11608">
+        <v>1271</v>
+      </c>
+      <c r="B11608" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11609" spans="1:2">
+      <c r="A11609">
+        <v>1652</v>
+      </c>
+      <c r="B11609" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11610" spans="1:2">
+      <c r="A11610">
+        <v>1716</v>
+      </c>
+      <c r="B11610" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11611" spans="1:2">
+      <c r="A11611">
+        <v>1910</v>
+      </c>
+      <c r="B11611" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11612" spans="1:2">
+      <c r="A11612">
+        <v>2468</v>
+      </c>
+      <c r="B11612" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11613" spans="1:2">
+      <c r="A11613">
+        <v>2948</v>
+      </c>
+      <c r="B11613" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11614" spans="1:2">
+      <c r="A11614">
+        <v>2972</v>
+      </c>
+      <c r="B11614" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11615" spans="1:2">
+      <c r="A11615">
+        <v>2974</v>
+      </c>
+      <c r="B11615" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11616" spans="1:2">
+      <c r="A11616">
+        <v>3814</v>
+      </c>
+      <c r="B11616" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11617" spans="1:2">
+      <c r="A11617">
+        <v>743</v>
+      </c>
+      <c r="B11617" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11618" spans="1:2">
+      <c r="A11618">
+        <v>907</v>
+      </c>
+      <c r="B11618" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11619" spans="1:2">
+      <c r="A11619">
+        <v>3548</v>
+      </c>
+      <c r="B11619" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11620" spans="1:2">
+      <c r="A11620">
+        <v>875</v>
+      </c>
+      <c r="B11620" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11621" spans="1:2">
+      <c r="A11621">
+        <v>3922</v>
+      </c>
+      <c r="B11621" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11622" spans="1:2">
+      <c r="A11622">
+        <v>3786</v>
+      </c>
+      <c r="B11622" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11623" spans="1:2">
+      <c r="A11623">
+        <v>3122</v>
+      </c>
+      <c r="B11623" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11624" spans="1:2">
+      <c r="A11624">
+        <v>3123</v>
+      </c>
+      <c r="B11624" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11625" spans="1:2">
+      <c r="A11625">
+        <v>3957</v>
+      </c>
+      <c r="B11625" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11626" spans="1:2">
+      <c r="A11626">
+        <v>4062</v>
+      </c>
+      <c r="B11626" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11627" spans="1:2">
+      <c r="A11627">
+        <v>4037</v>
+      </c>
+      <c r="B11627" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11628" spans="1:2">
+      <c r="A11628">
+        <v>3045</v>
+      </c>
+      <c r="B11628" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11629" spans="1:2">
+      <c r="A11629">
+        <v>4074</v>
+      </c>
+      <c r="B11629" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11630" spans="1:2">
+      <c r="A11630">
+        <v>3044</v>
+      </c>
+      <c r="B11630" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11631" spans="1:2">
+      <c r="A11631">
+        <v>4072</v>
+      </c>
+      <c r="B11631" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11632" spans="1:2">
+      <c r="A11632">
+        <v>3515</v>
+      </c>
+      <c r="B11632" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11633" spans="1:2">
+      <c r="A11633">
+        <v>3135</v>
+      </c>
+      <c r="B11633" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11634" spans="1:2">
+      <c r="A11634">
+        <v>3088</v>
+      </c>
+      <c r="B11634" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11635" spans="1:2">
+      <c r="A11635">
+        <v>3785</v>
+      </c>
+      <c r="B11635" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11636" spans="1:2">
+      <c r="A11636">
+        <v>866</v>
+      </c>
+      <c r="B11636" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11637" spans="1:2">
+      <c r="A11637">
+        <v>3561</v>
+      </c>
+      <c r="B11637" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11638" spans="1:2">
+      <c r="A11638">
+        <v>3907</v>
+      </c>
+      <c r="B11638" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11639" spans="1:2">
+      <c r="A11639">
+        <v>3255</v>
+      </c>
+      <c r="B11639" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11640" spans="1:2">
+      <c r="A11640">
+        <v>3847</v>
+      </c>
+      <c r="B11640" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11641" spans="1:2">
+      <c r="A11641">
+        <v>3549</v>
+      </c>
+      <c r="B11641" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11642" spans="1:2">
+      <c r="A11642">
+        <v>3950</v>
+      </c>
+      <c r="B11642" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11643" spans="1:2">
+      <c r="A11643">
+        <v>2142</v>
+      </c>
+      <c r="B11643" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11644" spans="1:2">
+      <c r="A11644">
+        <v>1328</v>
+      </c>
+      <c r="B11644" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11645" spans="1:2">
+      <c r="A11645">
+        <v>3386</v>
+      </c>
+      <c r="B11645" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="11646" spans="1:2">
+      <c r="A11646">
+        <v>364</v>
+      </c>
+      <c r="B11646" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="11647" spans="1:2">
+      <c r="A11647">
+        <v>3213</v>
+      </c>
+      <c r="B11647" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="11648" spans="1:2">
+      <c r="A11648">
+        <v>4026</v>
+      </c>
+      <c r="B11648" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="11649" spans="1:2">
+      <c r="A11649">
+        <v>2423</v>
+      </c>
+      <c r="B11649" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="11650" spans="1:2">
+      <c r="A11650">
+        <v>3297</v>
+      </c>
+      <c r="B11650" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="11651" spans="1:2">
+      <c r="A11651">
+        <v>3954</v>
+      </c>
+      <c r="B11651" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="11652" spans="1:2">
+      <c r="A11652">
+        <v>3133</v>
+      </c>
+      <c r="B11652" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="11653" spans="1:2">
+      <c r="A11653">
+        <v>1480</v>
+      </c>
+      <c r="B11653" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="11654" spans="1:2">
+      <c r="A11654">
+        <v>2260</v>
+      </c>
+      <c r="B11654" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="11655" spans="1:2">
+      <c r="A11655">
+        <v>1609</v>
+      </c>
+      <c r="B11655" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11656" spans="1:2">
+      <c r="A11656">
+        <v>3333</v>
+      </c>
+      <c r="B11656" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11657" spans="1:2">
+      <c r="A11657">
+        <v>3500</v>
+      </c>
+      <c r="B11657" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11658" spans="1:2">
+      <c r="A11658">
+        <v>1334</v>
+      </c>
+      <c r="B11658" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11659" spans="1:2">
+      <c r="A11659">
+        <v>1833</v>
+      </c>
+      <c r="B11659" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11660" spans="1:2">
+      <c r="A11660">
+        <v>746</v>
+      </c>
+      <c r="B11660" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11661" spans="1:2">
+      <c r="A11661">
+        <v>2130</v>
+      </c>
+      <c r="B11661" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11662" spans="1:2">
+      <c r="A11662">
+        <v>1438</v>
+      </c>
+      <c r="B11662" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11663" spans="1:2">
+      <c r="A11663">
+        <v>3405</v>
+      </c>
+      <c r="B11663" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11664" spans="1:2">
+      <c r="A11664">
+        <v>254</v>
+      </c>
+      <c r="B11664" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11665" spans="1:2">
+      <c r="A11665">
+        <v>1426</v>
+      </c>
+      <c r="B11665" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11666" spans="1:2">
+      <c r="A11666">
+        <v>2258</v>
+      </c>
+      <c r="B11666" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11667" spans="1:2">
+      <c r="A11667">
+        <v>1782</v>
+      </c>
+      <c r="B11667" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11668" spans="1:2">
+      <c r="A11668">
+        <v>3800</v>
+      </c>
+      <c r="B11668" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11669" spans="1:2">
+      <c r="A11669">
+        <v>1980</v>
+      </c>
+      <c r="B11669" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11670" spans="1:2">
+      <c r="A11670">
+        <v>2821</v>
+      </c>
+      <c r="B11670" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11671" spans="1:2">
+      <c r="A11671">
+        <v>2028</v>
+      </c>
+      <c r="B11671" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11672" spans="1:2">
+      <c r="A11672">
+        <v>1643</v>
+      </c>
+      <c r="B11672" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11673" spans="1:2">
+      <c r="A11673">
+        <v>1713</v>
+      </c>
+      <c r="B11673" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11674" spans="1:2">
+      <c r="A11674">
+        <v>1063</v>
+      </c>
+      <c r="B11674" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11675" spans="1:2">
+      <c r="A11675">
+        <v>1995</v>
+      </c>
+      <c r="B11675" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11676" spans="1:2">
+      <c r="A11676">
+        <v>2830</v>
+      </c>
+      <c r="B11676" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11677" spans="1:2">
+      <c r="A11677">
+        <v>373</v>
+      </c>
+      <c r="B11677" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11678" spans="1:2">
+      <c r="A11678">
+        <v>851</v>
+      </c>
+      <c r="B11678" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11679" spans="1:2">
+      <c r="A11679">
+        <v>261</v>
+      </c>
+      <c r="B11679" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11680" spans="1:2">
+      <c r="A11680">
+        <v>3082</v>
+      </c>
+      <c r="B11680" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11681" spans="1:2">
+      <c r="A11681">
+        <v>711</v>
+      </c>
+      <c r="B11681" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11682" spans="1:2">
+      <c r="A11682">
+        <v>2886</v>
+      </c>
+      <c r="B11682" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11683" spans="1:2">
+      <c r="A11683">
+        <v>1578</v>
+      </c>
+      <c r="B11683" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11684" spans="1:2">
+      <c r="A11684">
+        <v>85</v>
+      </c>
+      <c r="B11684" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11685" spans="1:2">
+      <c r="A11685">
+        <v>169</v>
+      </c>
+      <c r="B11685" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11686" spans="1:2">
+      <c r="A11686">
+        <v>2940</v>
+      </c>
+      <c r="B11686" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11687" spans="1:2">
+      <c r="A11687">
+        <v>805</v>
+      </c>
+      <c r="B11687" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11688" spans="1:2">
+      <c r="A11688">
+        <v>2336</v>
+      </c>
+      <c r="B11688" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11689" spans="1:2">
+      <c r="A11689">
+        <v>3258</v>
+      </c>
+      <c r="B11689" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11690" spans="1:2">
+      <c r="A11690">
+        <v>727</v>
+      </c>
+      <c r="B11690" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11691" spans="1:2">
+      <c r="A11691">
+        <v>64</v>
+      </c>
+      <c r="B11691" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11692" spans="1:2">
+      <c r="A11692">
+        <v>2223</v>
+      </c>
+      <c r="B11692" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11693" spans="1:2">
+      <c r="A11693">
+        <v>2011</v>
+      </c>
+      <c r="B11693" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11694" spans="1:2">
+      <c r="A11694">
+        <v>1731</v>
+      </c>
+      <c r="B11694" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11695" spans="1:2">
+      <c r="A11695" s="28">
+        <v>3957</v>
+      </c>
+      <c r="B11695" s="27" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11696" spans="1:2">
+      <c r="A11696" s="28">
+        <v>4026</v>
+      </c>
+      <c r="B11696" s="27" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11697" spans="1:2">
+      <c r="A11697" s="28">
+        <v>4028</v>
+      </c>
+      <c r="B11697" s="27" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11698" spans="1:2">
+      <c r="A11698" s="28">
+        <v>4037</v>
+      </c>
+      <c r="B11698" s="27" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11699" spans="1:2">
+      <c r="A11699" s="28">
+        <v>3987</v>
+      </c>
+      <c r="B11699" s="27" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11700" spans="1:2">
+      <c r="A11700" s="28">
+        <v>1783</v>
+      </c>
+      <c r="B11700" s="27" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11701" spans="1:2">
+      <c r="A11701" s="28">
+        <v>4059</v>
+      </c>
+      <c r="B11701" s="27" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11702" spans="1:2">
+      <c r="A11702" s="28">
+        <v>4064</v>
+      </c>
+      <c r="B11702" s="27" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11703" spans="1:2">
+      <c r="A11703" s="28">
+        <v>877</v>
+      </c>
+      <c r="B11703" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11704" spans="1:2">
+      <c r="A11704" s="28">
+        <v>1271</v>
+      </c>
+      <c r="B11704" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11705" spans="1:2">
+      <c r="A11705" s="28">
+        <v>1910</v>
+      </c>
+      <c r="B11705" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11706" spans="1:2">
+      <c r="A11706" s="27">
+        <v>3957</v>
+      </c>
+      <c r="B11706" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11707" spans="1:2">
+      <c r="A11707" s="27">
+        <v>4026</v>
+      </c>
+      <c r="B11707" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11708" spans="1:2">
+      <c r="A11708" s="27">
+        <v>4028</v>
+      </c>
+      <c r="B11708" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11709" spans="1:2">
+      <c r="A11709" s="27">
+        <v>4037</v>
+      </c>
+      <c r="B11709" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11710" spans="1:2">
+      <c r="A11710" s="27">
+        <v>3987</v>
+      </c>
+      <c r="B11710" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11711" spans="1:2">
+      <c r="A11711" s="28">
+        <v>3863</v>
+      </c>
+      <c r="B11711" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11712" spans="1:2">
+      <c r="A11712" s="28">
+        <v>3922</v>
+      </c>
+      <c r="B11712" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11713" spans="1:2">
+      <c r="A11713" s="28">
+        <v>3893</v>
+      </c>
+      <c r="B11713" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11714" spans="1:2">
+      <c r="A11714" s="28">
+        <v>3763</v>
+      </c>
+      <c r="B11714" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11715" spans="1:2">
+      <c r="A11715" s="28">
+        <v>3858</v>
+      </c>
+      <c r="B11715" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11716" spans="1:2">
+      <c r="A11716" s="28">
+        <v>3907</v>
+      </c>
+      <c r="B11716" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11717" spans="1:2">
+      <c r="A11717" s="28">
+        <v>860</v>
+      </c>
+      <c r="B11717" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11718" spans="1:2">
+      <c r="A11718" s="28">
+        <v>3859</v>
+      </c>
+      <c r="B11718" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11719" spans="1:2">
+      <c r="A11719" s="28">
+        <v>3441</v>
+      </c>
+      <c r="B11719" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11720" spans="1:2">
+      <c r="A11720" s="28">
+        <v>3768</v>
+      </c>
+      <c r="B11720" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11721" spans="1:2">
+      <c r="A11721" s="28">
+        <v>1783</v>
+      </c>
+      <c r="B11721" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11722" spans="1:2">
+      <c r="A11722" s="28">
+        <v>4059</v>
+      </c>
+      <c r="B11722" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11723" spans="1:2">
+      <c r="A11723" s="28">
+        <v>3440</v>
+      </c>
+      <c r="B11723" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11724" spans="1:2">
+      <c r="A11724" s="28">
+        <v>3630</v>
+      </c>
+      <c r="B11724" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11725" spans="1:2">
+      <c r="A11725" s="28">
+        <v>3915</v>
+      </c>
+      <c r="B11725" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11726" spans="1:2">
+      <c r="A11726" s="28">
+        <v>3491</v>
+      </c>
+      <c r="B11726" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11727" spans="1:2">
+      <c r="A11727" s="28">
+        <v>3923</v>
+      </c>
+      <c r="B11727" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11728" spans="1:2">
+      <c r="A11728" s="28">
+        <v>3881</v>
+      </c>
+      <c r="B11728" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11729" spans="1:2">
+      <c r="A11729" s="28">
+        <v>3802</v>
+      </c>
+      <c r="B11729" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11730" spans="1:2">
+      <c r="A11730" s="28">
+        <v>3804</v>
+      </c>
+      <c r="B11730" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11731" spans="1:2">
+      <c r="A11731" s="28">
+        <v>3930</v>
+      </c>
+      <c r="B11731" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11732" spans="1:2">
+      <c r="A11732" s="28">
+        <v>3961</v>
+      </c>
+      <c r="B11732" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11733" spans="1:2">
+      <c r="A11733" s="28">
+        <v>4172</v>
+      </c>
+      <c r="B11733" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11734" spans="1:2">
+      <c r="A11734" s="27">
+        <v>4147</v>
+      </c>
+      <c r="B11734" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11735" spans="1:2">
+      <c r="A11735" s="27">
+        <v>4162</v>
+      </c>
+      <c r="B11735" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11736" spans="1:2">
+      <c r="A11736" s="28">
+        <v>4144</v>
+      </c>
+      <c r="B11736" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11737" spans="1:2">
+      <c r="A11737" s="27">
+        <v>4103</v>
+      </c>
+      <c r="B11737" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11738" spans="1:2">
+      <c r="A11738" s="27">
+        <v>4146</v>
+      </c>
+      <c r="B11738" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11739" spans="1:2">
+      <c r="A11739" s="27">
+        <v>4119</v>
+      </c>
+      <c r="B11739" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11740" spans="1:2">
+      <c r="A11740" s="27">
+        <v>4121</v>
+      </c>
+      <c r="B11740" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11741" spans="1:2">
+      <c r="A11741" s="27">
+        <v>4095</v>
+      </c>
+      <c r="B11741" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11742" spans="1:2">
+      <c r="A11742" s="27">
+        <v>4143</v>
+      </c>
+      <c r="B11742" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11743" spans="1:2">
+      <c r="A11743" s="27">
+        <v>4142</v>
+      </c>
+      <c r="B11743" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11744" spans="1:2">
+      <c r="A11744" s="27">
+        <v>4111</v>
+      </c>
+      <c r="B11744" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11745" spans="1:2">
+      <c r="A11745" s="27">
+        <v>4130</v>
+      </c>
+      <c r="B11745" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11746" spans="1:2">
+      <c r="A11746" s="28">
+        <v>904</v>
+      </c>
+      <c r="B11746" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11747" spans="1:2">
+      <c r="A11747" s="28">
+        <v>935</v>
+      </c>
+      <c r="B11747" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11748" spans="1:2">
+      <c r="A11748" s="28">
+        <v>1875</v>
+      </c>
+      <c r="B11748" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11749" spans="1:2">
+      <c r="A11749" s="28">
+        <v>3386</v>
+      </c>
+      <c r="B11749" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11750" spans="1:2">
+      <c r="A11750" s="28">
+        <v>3709</v>
+      </c>
+      <c r="B11750" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11751" spans="1:2">
+      <c r="A11751" s="28">
+        <v>3900</v>
+      </c>
+      <c r="B11751" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11752" spans="1:2">
+      <c r="A11752" s="28">
+        <v>3857</v>
+      </c>
+      <c r="B11752" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11753" spans="1:2">
+      <c r="A11753" s="28">
+        <v>2741</v>
+      </c>
+      <c r="B11753" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11754" spans="1:2">
+      <c r="A11754" s="28">
+        <v>3800</v>
+      </c>
+      <c r="B11754" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11755" spans="1:2">
+      <c r="A11755" s="28">
+        <v>3093</v>
+      </c>
+      <c r="B11755" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11756" spans="1:2">
+      <c r="A11756" s="28">
+        <v>1995</v>
+      </c>
+      <c r="B11756" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11757" spans="1:2">
+      <c r="A11757" s="28">
+        <v>3082</v>
+      </c>
+      <c r="B11757" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11758" spans="1:2">
+      <c r="A11758" s="28">
+        <v>3083</v>
+      </c>
+      <c r="B11758" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11759" spans="1:2">
+      <c r="A11759" s="28">
+        <v>3863</v>
+      </c>
+      <c r="B11759" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11760" spans="1:2">
+      <c r="A11760" s="28">
+        <v>3252</v>
+      </c>
+      <c r="B11760" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11761" spans="1:2">
+      <c r="A11761" s="28">
+        <v>3777</v>
+      </c>
+      <c r="B11761" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11762" spans="1:2">
+      <c r="A11762" s="28">
+        <v>705</v>
+      </c>
+      <c r="B11762" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11763" spans="1:2">
+      <c r="A11763" s="28">
+        <v>2055</v>
+      </c>
+      <c r="B11763" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11764" spans="1:2">
+      <c r="A11764" s="28">
+        <v>3898</v>
+      </c>
+      <c r="B11764" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11765" spans="1:2">
+      <c r="A11765" s="28">
+        <v>153</v>
+      </c>
+      <c r="B11765" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11766" spans="1:2">
+      <c r="A11766" s="28">
+        <v>2094</v>
+      </c>
+      <c r="B11766" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11767" spans="1:2">
+      <c r="A11767" s="28">
+        <v>466</v>
+      </c>
+      <c r="B11767" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11768" spans="1:2">
+      <c r="A11768" s="28">
+        <v>3435</v>
+      </c>
+      <c r="B11768" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11769" spans="1:2">
+      <c r="A11769" s="28">
+        <v>3954</v>
+      </c>
+      <c r="B11769" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11770" spans="1:2">
+      <c r="A11770" s="28">
+        <v>3201</v>
+      </c>
+      <c r="B11770" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11771" spans="1:2">
+      <c r="A11771" s="28">
+        <v>3671</v>
+      </c>
+      <c r="B11771" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11772" spans="1:2">
+      <c r="A11772" s="28">
+        <v>1764</v>
+      </c>
+      <c r="B11772" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11773" spans="1:2">
+      <c r="A11773" s="28">
+        <v>2217</v>
+      </c>
+      <c r="B11773" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11774" spans="1:2">
+      <c r="A11774" s="28">
+        <v>1487</v>
+      </c>
+      <c r="B11774" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11775" spans="1:2">
+      <c r="A11775" s="28">
+        <v>3964</v>
+      </c>
+      <c r="B11775" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11776" spans="1:2">
+      <c r="A11776" s="28">
+        <v>908</v>
+      </c>
+      <c r="B11776" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11777" spans="1:2">
+      <c r="A11777" s="28">
+        <v>909</v>
+      </c>
+      <c r="B11777" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11778" spans="1:2">
+      <c r="A11778" s="28">
+        <v>1675</v>
+      </c>
+      <c r="B11778" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11779" spans="1:2">
+      <c r="A11779" s="28">
+        <v>261</v>
+      </c>
+      <c r="B11779" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11780" spans="1:2">
+      <c r="A11780" s="28">
+        <v>851</v>
+      </c>
+      <c r="B11780" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11781" spans="1:2">
+      <c r="A11781" s="28">
+        <v>727</v>
+      </c>
+      <c r="B11781" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11782" spans="1:2">
+      <c r="A11782" s="28">
+        <v>2880</v>
+      </c>
+      <c r="B11782" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11783" spans="1:2">
+      <c r="A11783" s="28">
+        <v>1390</v>
+      </c>
+      <c r="B11783" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11784" spans="1:2">
+      <c r="A11784" s="28">
+        <v>3377</v>
+      </c>
+      <c r="B11784" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11785" spans="1:2">
+      <c r="A11785" s="28">
+        <v>3492</v>
+      </c>
+      <c r="B11785" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11786" spans="1:2">
+      <c r="A11786" s="28">
+        <v>3966</v>
+      </c>
+      <c r="B11786" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11787" spans="1:2">
+      <c r="A11787" s="28">
+        <v>1120</v>
+      </c>
+      <c r="B11787" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11788" spans="1:2">
+      <c r="A11788" s="28">
+        <v>1552</v>
+      </c>
+      <c r="B11788" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11789" spans="1:2">
+      <c r="A11789" s="28">
+        <v>2478</v>
+      </c>
+      <c r="B11789" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11790" spans="1:2">
+      <c r="A11790" s="28">
+        <v>1897</v>
+      </c>
+      <c r="B11790" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11791" spans="1:2">
+      <c r="A11791" s="28">
+        <v>1777</v>
+      </c>
+      <c r="B11791" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11792" spans="1:2">
+      <c r="A11792" s="28">
+        <v>2927</v>
+      </c>
+      <c r="B11792" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11793" spans="1:2">
+      <c r="A11793" s="28">
+        <v>1697</v>
+      </c>
+      <c r="B11793" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11794" spans="1:2">
+      <c r="A11794" s="28">
+        <v>1008</v>
+      </c>
+      <c r="B11794" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11795" spans="1:2">
+      <c r="A11795" s="28">
+        <v>1608</v>
+      </c>
+      <c r="B11795" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11796" spans="1:2">
+      <c r="A11796" s="28">
+        <v>3440</v>
+      </c>
+      <c r="B11796" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11797" spans="1:2">
+      <c r="A11797" s="28">
+        <v>3320</v>
+      </c>
+      <c r="B11797" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11798" spans="1:2">
+      <c r="A11798" s="28">
+        <v>1389</v>
+      </c>
+      <c r="B11798" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11799" spans="1:2">
+      <c r="A11799" s="28">
+        <v>1661</v>
+      </c>
+      <c r="B11799" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11800" spans="1:2">
+      <c r="A11800" s="28">
+        <v>2343</v>
+      </c>
+      <c r="B11800" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11801" spans="1:2">
+      <c r="A11801" s="28">
+        <v>3942</v>
+      </c>
+      <c r="B11801" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11802" spans="1:2">
+      <c r="A11802" s="28">
+        <v>1001</v>
+      </c>
+      <c r="B11802" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11803" spans="1:2">
+      <c r="A11803" s="28">
+        <v>387</v>
+      </c>
+      <c r="B11803" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11804" spans="1:2">
+      <c r="A11804" s="28">
+        <v>3463</v>
+      </c>
+      <c r="B11804" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11805" spans="1:2">
+      <c r="A11805" s="28">
+        <v>4026</v>
+      </c>
+      <c r="B11805" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11806" spans="1:2">
+      <c r="A11806" s="28">
+        <v>1862</v>
+      </c>
+      <c r="B11806" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11807" spans="1:2">
+      <c r="A11807" s="28">
+        <v>1312</v>
+      </c>
+      <c r="B11807" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11808" spans="1:2">
+      <c r="A11808" s="28">
+        <v>2050</v>
+      </c>
+      <c r="B11808" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11809" spans="1:2">
+      <c r="A11809" s="28">
+        <v>931</v>
+      </c>
+      <c r="B11809" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11810" spans="1:2">
+      <c r="A11810" s="28">
+        <v>2190</v>
+      </c>
+      <c r="B11810" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11811" spans="1:2">
+      <c r="A11811" s="28">
+        <v>1758</v>
+      </c>
+      <c r="B11811" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11812" spans="1:2">
+      <c r="A11812" s="28">
+        <v>334</v>
+      </c>
+      <c r="B11812" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11813" spans="1:2">
+      <c r="A11813" s="28">
+        <v>1480</v>
+      </c>
+      <c r="B11813" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11814" spans="1:2">
+      <c r="A11814" s="28">
+        <v>373</v>
+      </c>
+      <c r="B11814" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11815" spans="1:2">
+      <c r="A11815" s="28">
+        <v>3318</v>
+      </c>
+      <c r="B11815" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11816" spans="1:2">
+      <c r="A11816" s="28">
+        <v>1131</v>
+      </c>
+      <c r="B11816" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11817" spans="1:2">
+      <c r="A11817" s="28">
+        <v>743</v>
+      </c>
+      <c r="B11817" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11818" spans="1:2">
+      <c r="A11818" s="28">
+        <v>3915</v>
+      </c>
+      <c r="B11818" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11819" spans="1:2">
+      <c r="A11819" s="28">
+        <v>3522</v>
+      </c>
+      <c r="B11819" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11820" spans="1:2">
+      <c r="A11820" s="28">
+        <v>2819</v>
+      </c>
+      <c r="B11820" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11821" spans="1:2">
+      <c r="A11821" s="28">
+        <v>1663</v>
+      </c>
+      <c r="B11821" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11822" spans="1:2">
+      <c r="A11822" s="28">
+        <v>1767</v>
+      </c>
+      <c r="B11822" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11823" spans="1:2">
+      <c r="A11823" s="28">
+        <v>1592</v>
+      </c>
+      <c r="B11823" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11824" spans="1:2">
+      <c r="A11824" s="28">
+        <v>2407</v>
+      </c>
+      <c r="B11824" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11825" spans="1:2">
+      <c r="A11825" s="28">
+        <v>4062</v>
+      </c>
+      <c r="B11825" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11826" spans="1:2">
+      <c r="A11826" s="28">
+        <v>292</v>
+      </c>
+      <c r="B11826" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11827" spans="1:2">
+      <c r="A11827" s="28">
+        <v>789</v>
+      </c>
+      <c r="B11827" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11828" spans="1:2">
+      <c r="A11828" s="28">
+        <v>3315</v>
+      </c>
+      <c r="B11828" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11829" spans="1:2">
+      <c r="A11829" s="28">
+        <v>326</v>
+      </c>
+      <c r="B11829" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11830" spans="1:2">
+      <c r="A11830" s="28">
+        <v>2633</v>
+      </c>
+      <c r="B11830" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11831" spans="1:2">
+      <c r="A11831" s="28">
+        <v>3211</v>
+      </c>
+      <c r="B11831" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11832" spans="1:2">
+      <c r="A11832" s="28">
+        <v>3965</v>
+      </c>
+      <c r="B11832" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11833" spans="1:2">
+      <c r="A11833" s="28">
+        <v>4090</v>
+      </c>
+      <c r="B11833" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11834" spans="1:2">
+      <c r="A11834" s="28">
+        <v>2886</v>
+      </c>
+      <c r="B11834" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11835" spans="1:2">
+      <c r="A11835" s="28">
+        <v>2940</v>
+      </c>
+      <c r="B11835" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11836" spans="1:2">
+      <c r="A11836" s="28">
+        <v>3002</v>
+      </c>
+      <c r="B11836" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11837" spans="1:2">
+      <c r="A11837" s="28">
+        <v>3258</v>
+      </c>
+      <c r="B11837" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11838" spans="1:2">
+      <c r="A11838" s="28">
+        <v>978</v>
+      </c>
+      <c r="B11838" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11839" spans="1:2">
+      <c r="A11839" s="28">
+        <v>826</v>
+      </c>
+      <c r="B11839" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11840" spans="1:2">
+      <c r="A11840" s="28">
+        <v>1992</v>
+      </c>
+      <c r="B11840" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11841" spans="1:2">
+      <c r="A11841" s="28">
+        <v>1769</v>
+      </c>
+      <c r="B11841" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11842" spans="1:2">
+      <c r="A11842" s="28">
+        <v>907</v>
+      </c>
+      <c r="B11842" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11843" spans="1:2">
+      <c r="A11843" s="28">
+        <v>936</v>
+      </c>
+      <c r="B11843" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11844" spans="1:2">
+      <c r="A11844" s="28">
+        <v>3377</v>
+      </c>
+      <c r="B11844" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11845" spans="1:2">
+      <c r="A11845" s="28">
+        <v>3954</v>
+      </c>
+      <c r="B11845" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11846" spans="1:2">
+      <c r="A11846" s="28">
+        <v>3966</v>
+      </c>
+      <c r="B11846" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11847" spans="1:2">
+      <c r="A11847" s="28">
+        <v>3964</v>
+      </c>
+      <c r="B11847" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11848" spans="1:2">
+      <c r="A11848" s="28">
+        <v>3965</v>
+      </c>
+      <c r="B11848" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11849" spans="1:2">
+      <c r="A11849" s="28">
+        <v>3928</v>
+      </c>
+      <c r="B11849" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11850" spans="1:2">
+      <c r="A11850" s="28">
+        <v>3515</v>
+      </c>
+      <c r="B11850" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11851" spans="1:2">
+      <c r="A11851" s="28">
+        <v>3657</v>
+      </c>
+      <c r="B11851" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11852" spans="1:2">
+      <c r="A11852" s="28">
+        <v>1743</v>
+      </c>
+      <c r="B11852" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11853" spans="1:2">
+      <c r="A11853" s="28">
+        <v>3975</v>
+      </c>
+      <c r="B11853" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11854" spans="1:2">
+      <c r="A11854" s="28">
+        <v>3863</v>
+      </c>
+      <c r="B11854" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11855" spans="1:2">
+      <c r="A11855" s="28">
+        <v>3942</v>
+      </c>
+      <c r="B11855" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11856" spans="1:2">
+      <c r="A11856" s="28">
+        <v>1583</v>
+      </c>
+      <c r="B11856" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11857" spans="1:2">
+      <c r="A11857" s="28">
+        <v>3341</v>
+      </c>
+      <c r="B11857" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11858" spans="1:2">
+      <c r="A11858" s="28">
+        <v>3871</v>
+      </c>
+      <c r="B11858" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11859" spans="1:2">
+      <c r="A11859" s="28">
+        <v>3022</v>
+      </c>
+      <c r="B11859" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11860" spans="1:2">
+      <c r="A11860" s="28">
+        <v>3847</v>
+      </c>
+      <c r="B11860" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11861" spans="1:2">
+      <c r="A11861" s="28">
+        <v>3910</v>
+      </c>
+      <c r="B11861" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11862" spans="1:2">
+      <c r="A11862" s="28">
+        <v>3882</v>
+      </c>
+      <c r="B11862" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11863" spans="1:2">
+      <c r="A11863" s="28">
+        <v>3881</v>
+      </c>
+      <c r="B11863" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11864" spans="1:2">
+      <c r="A11864" s="28">
+        <v>3988</v>
+      </c>
+      <c r="B11864" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11865" spans="1:2">
+      <c r="A11865" s="28">
+        <v>4026</v>
+      </c>
+      <c r="B11865" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11866" spans="1:2">
+      <c r="A11866" s="28">
+        <v>2947</v>
+      </c>
+      <c r="B11866" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11867" spans="1:2">
+      <c r="A11867" s="28">
+        <v>1048</v>
+      </c>
+      <c r="B11867" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11868" spans="1:2">
+      <c r="A11868" s="28">
+        <v>3957</v>
+      </c>
+      <c r="B11868" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11869" spans="1:2">
+      <c r="A11869" s="28">
+        <v>877</v>
+      </c>
+      <c r="B11869" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11870" spans="1:2">
+      <c r="A11870" s="28">
+        <v>3364</v>
+      </c>
+      <c r="B11870" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11871" spans="1:2">
+      <c r="A11871" s="28">
+        <v>2972</v>
+      </c>
+      <c r="B11871" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11872" spans="1:2">
+      <c r="A11872" s="28">
+        <v>4037</v>
+      </c>
+      <c r="B11872" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11873" spans="1:2">
+      <c r="A11873" s="28">
+        <v>3136</v>
+      </c>
+      <c r="B11873" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11874" spans="1:2">
+      <c r="A11874" s="28">
+        <v>3440</v>
+      </c>
+      <c r="B11874" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11875" spans="1:2">
+      <c r="A11875" s="28">
+        <v>3915</v>
+      </c>
+      <c r="B11875" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11876" spans="1:2">
+      <c r="A11876" s="28">
+        <v>3907</v>
+      </c>
+      <c r="B11876" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11877" spans="1:2">
+      <c r="A11877" s="28">
+        <v>3441</v>
+      </c>
+      <c r="B11877" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11878" spans="1:2">
+      <c r="A11878" s="28">
+        <v>3447</v>
+      </c>
+      <c r="B11878" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11879" spans="1:2">
+      <c r="A11879" s="28">
+        <v>3448</v>
+      </c>
+      <c r="B11879" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11880" spans="1:2">
+      <c r="A11880" s="28">
+        <v>3923</v>
+      </c>
+      <c r="B11880" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11881" spans="1:2">
+      <c r="A11881" s="28">
+        <v>3945</v>
+      </c>
+      <c r="B11881" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11882" spans="1:2">
+      <c r="A11882" s="28">
+        <v>1271</v>
+      </c>
+      <c r="B11882" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11883" spans="1:2">
+      <c r="A11883" s="28">
+        <v>1910</v>
+      </c>
+      <c r="B11883" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11884" spans="1:2">
+      <c r="A11884" s="28">
+        <v>3163</v>
+      </c>
+      <c r="B11884" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11885" spans="1:2">
+      <c r="A11885" s="28">
+        <v>3305</v>
+      </c>
+      <c r="B11885" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11886" spans="1:2">
+      <c r="A11886" s="28">
+        <v>3045</v>
+      </c>
+      <c r="B11886" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11887" spans="1:2">
+      <c r="A11887" s="28">
+        <v>4086</v>
+      </c>
+      <c r="B11887" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11888" spans="1:2">
+      <c r="A11888" s="28">
+        <v>4074</v>
+      </c>
+      <c r="B11888" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11889" spans="1:2">
+      <c r="A11889" s="28">
+        <v>153</v>
+      </c>
+      <c r="B11889" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11890" spans="1:2">
+      <c r="A11890" s="28">
+        <v>3568</v>
+      </c>
+      <c r="B11890" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11891" spans="1:2">
+      <c r="A11891" s="28">
+        <v>3058</v>
+      </c>
+      <c r="B11891" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11892" spans="1:2">
+      <c r="A11892" s="28">
+        <v>1294</v>
+      </c>
+      <c r="B11892" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11893" spans="1:2">
+      <c r="A11893" s="28">
+        <v>4019</v>
+      </c>
+      <c r="B11893" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11894" spans="1:2">
+      <c r="A11894" s="28">
+        <v>3961</v>
+      </c>
+      <c r="B11894" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11895" spans="1:2">
+      <c r="A11895" s="28">
+        <v>3917</v>
+      </c>
+      <c r="B11895" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11896" spans="1:2">
+      <c r="A11896" s="28">
+        <v>3992</v>
+      </c>
+      <c r="B11896" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11897" spans="1:2">
+      <c r="A11897" s="28">
+        <v>4034</v>
+      </c>
+      <c r="B11897" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11898" spans="1:2">
+      <c r="A11898" s="28">
+        <v>4062</v>
+      </c>
+      <c r="B11898" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11899" spans="1:2">
+      <c r="A11899" s="28">
+        <v>3044</v>
+      </c>
+      <c r="B11899" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11900" spans="1:2">
+      <c r="A11900" s="28">
+        <v>4072</v>
+      </c>
+      <c r="B11900" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11901" spans="1:2">
+      <c r="A11901" s="28">
+        <v>4064</v>
+      </c>
+      <c r="B11901" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11902" spans="1:2">
+      <c r="A11902" s="28">
+        <v>4075</v>
+      </c>
+      <c r="B11902" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11903" spans="1:2">
+      <c r="A11903" s="28">
+        <v>4073</v>
+      </c>
+      <c r="B11903" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11904" spans="1:2">
+      <c r="A11904" s="28">
+        <v>907</v>
+      </c>
+      <c r="B11904" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11905" spans="1:2">
+      <c r="A11905" s="28">
+        <v>794</v>
+      </c>
+      <c r="B11905" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11906" spans="1:2">
+      <c r="A11906" s="28">
+        <v>3950</v>
+      </c>
+      <c r="B11906" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11907" spans="1:2">
+      <c r="A11907" s="28">
+        <v>3870</v>
+      </c>
+      <c r="B11907" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11908" spans="1:2">
+      <c r="A11908" s="28">
+        <v>501</v>
+      </c>
+      <c r="B11908" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11909" spans="1:2">
+      <c r="A11909" s="28">
+        <v>3955</v>
+      </c>
+      <c r="B11909" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11910" spans="1:2">
+      <c r="A11910" s="28">
+        <v>3692</v>
+      </c>
+      <c r="B11910" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11911" spans="1:2">
+      <c r="A11911" s="28">
+        <v>3763</v>
+      </c>
+      <c r="B11911" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11912" spans="1:2">
+      <c r="A11912" s="28">
+        <v>3319</v>
+      </c>
+      <c r="B11912" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11913" spans="1:2">
+      <c r="A11913" s="28">
+        <v>4007</v>
+      </c>
+      <c r="B11913" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11914" spans="1:2">
+      <c r="A11914" s="28">
+        <v>4090</v>
+      </c>
+      <c r="B11914" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11915" spans="1:2">
+      <c r="A11915" s="28">
+        <v>4089</v>
+      </c>
+      <c r="B11915" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11916" spans="1:2">
+      <c r="A11916" s="28">
+        <v>4022</v>
+      </c>
+      <c r="B11916" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11917" spans="1:2">
+      <c r="A11917" s="28">
+        <v>4097</v>
+      </c>
+      <c r="B11917" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11918" spans="1:2">
+      <c r="A11918" s="28">
+        <v>4172</v>
+      </c>
+      <c r="B11918" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11919" spans="1:2">
+      <c r="A11919" s="28">
+        <v>4132</v>
+      </c>
+      <c r="B11919" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11920" spans="1:2">
+      <c r="A11920" s="28">
+        <v>4147</v>
+      </c>
+      <c r="B11920" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11921" spans="1:2">
+      <c r="A11921" s="28">
+        <v>4128</v>
+      </c>
+      <c r="B11921" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11922" spans="1:2">
+      <c r="A11922" s="28">
+        <v>4098</v>
+      </c>
+      <c r="B11922" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11923" spans="1:2">
+      <c r="A11923" s="28">
+        <v>3938</v>
+      </c>
+      <c r="B11923" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11924" spans="1:2">
+      <c r="A11924" s="28">
+        <v>3922</v>
+      </c>
+      <c r="B11924" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11925" spans="1:2">
+      <c r="A11925" s="28">
+        <v>3953</v>
+      </c>
+      <c r="B11925" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11926" spans="1:2">
+      <c r="A11926" s="28">
+        <v>972</v>
+      </c>
+      <c r="B11926" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11927" spans="1:2">
+      <c r="A11927" s="28">
+        <v>3894</v>
+      </c>
+      <c r="B11927" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11928" spans="1:2">
+      <c r="A11928" s="28">
+        <v>2458</v>
+      </c>
+      <c r="B11928" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11929" spans="1:2">
+      <c r="A11929" s="28">
+        <v>2693</v>
+      </c>
+      <c r="B11929" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11930" spans="1:2">
+      <c r="A11930" s="28">
+        <v>3893</v>
+      </c>
+      <c r="B11930" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11931" spans="1:2">
+      <c r="A11931" s="28">
+        <v>3757</v>
+      </c>
+      <c r="B11931" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11932" spans="1:2">
+      <c r="A11932" s="28">
+        <v>1994</v>
+      </c>
+      <c r="B11932" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11933" spans="1:2">
+      <c r="A11933" s="28">
+        <v>4032</v>
+      </c>
+      <c r="B11933" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11934" spans="1:2">
+      <c r="A11934" s="28">
+        <v>3975</v>
+      </c>
+      <c r="B11934" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11935" spans="1:2">
+      <c r="A11935" s="28">
+        <v>3988</v>
+      </c>
+      <c r="B11935" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11936" spans="1:2">
+      <c r="A11936" s="28">
+        <v>1048</v>
+      </c>
+      <c r="B11936" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11937" spans="1:2">
+      <c r="A11937" s="28">
+        <v>1271</v>
+      </c>
+      <c r="B11937" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11938" spans="1:2">
+      <c r="A11938" s="28">
+        <v>877</v>
+      </c>
+      <c r="B11938" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11939" spans="1:2">
+      <c r="A11939" s="28">
+        <v>3364</v>
+      </c>
+      <c r="B11939" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11940" spans="1:2">
+      <c r="A11940" s="28">
+        <v>3863</v>
+      </c>
+      <c r="B11940" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11941" spans="1:2">
+      <c r="A11941" s="28">
+        <v>3258</v>
+      </c>
+      <c r="B11941" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11942" spans="1:2">
+      <c r="A11942" s="28">
+        <v>3814</v>
+      </c>
+      <c r="B11942" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11943" spans="1:2">
+      <c r="A11943" s="28">
+        <v>1294</v>
+      </c>
+      <c r="B11943" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11944" spans="1:2">
+      <c r="A11944" s="28">
+        <v>3942</v>
+      </c>
+      <c r="B11944" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11945" spans="1:2">
+      <c r="A11945" s="28">
+        <v>744</v>
+      </c>
+      <c r="B11945" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11946" spans="1:2">
+      <c r="A11946" s="28">
+        <v>2910</v>
+      </c>
+      <c r="B11946" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11947" spans="1:2">
+      <c r="A11947" s="28">
+        <v>3484</v>
+      </c>
+      <c r="B11947" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11948" spans="1:2">
+      <c r="A11948" s="28">
+        <v>192</v>
+      </c>
+      <c r="B11948" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11949" spans="1:2">
+      <c r="A11949" s="28">
+        <v>173</v>
+      </c>
+      <c r="B11949" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11950" spans="1:2">
+      <c r="A11950" s="28">
+        <v>3957</v>
+      </c>
+      <c r="B11950" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11951" spans="1:2">
+      <c r="A11951" s="28">
+        <v>4026</v>
+      </c>
+      <c r="B11951" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11952" spans="1:2">
+      <c r="A11952" s="28">
+        <v>4037</v>
+      </c>
+      <c r="B11952" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11953" spans="1:2">
+      <c r="A11953" s="27">
+        <v>1783</v>
+      </c>
+      <c r="B11953" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11954" spans="1:2">
+      <c r="A11954" s="27">
+        <v>4058</v>
+      </c>
+      <c r="B11954" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11955" spans="1:2">
+      <c r="A11955" s="27">
+        <v>4062</v>
+      </c>
+      <c r="B11955" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11956" spans="1:2">
+      <c r="A11956" s="27">
+        <v>4059</v>
+      </c>
+      <c r="B11956" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11957" spans="1:2">
+      <c r="A11957" s="27">
+        <v>3953</v>
+      </c>
+      <c r="B11957" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11958" spans="1:2">
+      <c r="A11958" s="28">
+        <v>3775</v>
+      </c>
+      <c r="B11958" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11959" spans="1:2">
+      <c r="A11959" s="28">
+        <v>3440</v>
+      </c>
+      <c r="B11959" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11960" spans="1:2">
+      <c r="A11960" s="28">
+        <v>1730</v>
+      </c>
+      <c r="B11960" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11961" spans="1:2">
+      <c r="A11961" s="28">
+        <v>3915</v>
+      </c>
+      <c r="B11961" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11962" spans="1:2">
+      <c r="A11962" s="28">
+        <v>3907</v>
+      </c>
+      <c r="B11962" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11963" spans="1:2">
+      <c r="A11963" s="28">
+        <v>2914</v>
+      </c>
+      <c r="B11963" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11964" spans="1:2">
+      <c r="A11964" s="28">
+        <v>3441</v>
+      </c>
+      <c r="B11964" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11965" spans="1:2">
+      <c r="A11965" s="28">
+        <v>1501</v>
+      </c>
+      <c r="B11965" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11966" spans="1:2">
+      <c r="A11966" s="28">
+        <v>1586</v>
+      </c>
+      <c r="B11966" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11967" spans="1:2">
+      <c r="A11967" s="28">
+        <v>1500</v>
+      </c>
+      <c r="B11967" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11968" spans="1:2">
+      <c r="A11968" s="28">
+        <v>2000</v>
+      </c>
+      <c r="B11968" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11969" spans="1:2">
+      <c r="A11969" s="28">
+        <v>1304</v>
+      </c>
+      <c r="B11969" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11970" spans="1:2">
+      <c r="A11970" s="28">
+        <v>1463</v>
+      </c>
+      <c r="B11970" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11971" spans="1:2">
+      <c r="A11971" s="28">
+        <v>2448</v>
+      </c>
+      <c r="B11971" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11972" spans="1:2">
+      <c r="A11972" s="28">
+        <v>3295</v>
+      </c>
+      <c r="B11972" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11973" spans="1:2">
+      <c r="A11973" s="28">
+        <v>2094</v>
+      </c>
+      <c r="B11973" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11974" spans="1:2">
+      <c r="A11974" s="28">
+        <v>1778</v>
+      </c>
+      <c r="B11974" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11975" spans="1:2">
+      <c r="A11975" s="28">
+        <v>3083</v>
+      </c>
+      <c r="B11975" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11976" spans="1:2">
+      <c r="A11976" s="28">
+        <v>380</v>
+      </c>
+      <c r="B11976" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11977" spans="1:2">
+      <c r="A11977" s="28">
+        <v>1592</v>
+      </c>
+      <c r="B11977" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11978" spans="1:2">
+      <c r="A11978" s="28">
+        <v>3548</v>
+      </c>
+      <c r="B11978" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11979" spans="1:2">
+      <c r="A11979" s="28">
+        <v>3785</v>
+      </c>
+      <c r="B11979" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11980" spans="1:2">
+      <c r="A11980" s="28">
+        <v>3853</v>
+      </c>
+      <c r="B11980" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11981" spans="1:2">
+      <c r="A11981" s="28">
+        <v>152</v>
+      </c>
+      <c r="B11981" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11982" spans="1:2">
+      <c r="A11982" s="28">
+        <v>3058</v>
+      </c>
+      <c r="B11982" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11983" spans="1:2">
+      <c r="A11983" s="28">
+        <v>1142</v>
+      </c>
+      <c r="B11983" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11984" spans="1:2">
+      <c r="A11984" s="28">
+        <v>504</v>
+      </c>
+      <c r="B11984" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11985" spans="1:2">
+      <c r="A11985" s="28">
+        <v>4074</v>
+      </c>
+      <c r="B11985" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11986" spans="1:2">
+      <c r="A11986" s="28">
+        <v>4064</v>
+      </c>
+      <c r="B11986" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11987" spans="1:2">
+      <c r="A11987" s="28">
+        <v>4072</v>
+      </c>
+      <c r="B11987" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11988" spans="1:2">
+      <c r="A11988" s="28">
+        <v>4086</v>
+      </c>
+      <c r="B11988" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11989" spans="1:2">
+      <c r="A11989" s="28">
+        <v>4075</v>
+      </c>
+      <c r="B11989" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11990" spans="1:2">
+      <c r="A11990" s="28">
+        <v>4073</v>
+      </c>
+      <c r="B11990" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11991" spans="1:2">
+      <c r="A11991" s="28">
+        <v>3045</v>
+      </c>
+      <c r="B11991" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11992" spans="1:2">
+      <c r="A11992" s="28">
+        <v>3044</v>
+      </c>
+      <c r="B11992" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11993" spans="1:2">
+      <c r="A11993" s="28">
+        <v>1995</v>
+      </c>
+      <c r="B11993" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11994" spans="1:2">
+      <c r="A11994" s="28">
+        <v>3055</v>
+      </c>
+      <c r="B11994" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11995" spans="1:2">
+      <c r="A11995" s="28">
+        <v>3318</v>
+      </c>
+      <c r="B11995" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11996" spans="1:2">
+      <c r="A11996" s="28">
+        <v>1769</v>
+      </c>
+      <c r="B11996" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11997" spans="1:2">
+      <c r="A11997" s="28">
+        <v>978</v>
+      </c>
+      <c r="B11997" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11998" spans="1:2">
+      <c r="A11998" s="28">
+        <v>1954</v>
+      </c>
+      <c r="B11998" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11999" spans="1:2">
+      <c r="A11999" s="28">
+        <v>1827</v>
+      </c>
+      <c r="B11999" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12000" spans="1:2">
+      <c r="A12000" s="28">
+        <v>737</v>
+      </c>
+      <c r="B12000" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12001" spans="1:2">
+      <c r="A12001" s="28">
+        <v>1826</v>
+      </c>
+      <c r="B12001" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12002" spans="1:2">
+      <c r="A12002" s="28">
+        <v>3568</v>
+      </c>
+      <c r="B12002" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12003" spans="1:2">
+      <c r="A12003" s="28">
+        <v>4090</v>
+      </c>
+      <c r="B12003" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12004" spans="1:2">
+      <c r="A12004" s="28">
+        <v>4132</v>
+      </c>
+      <c r="B12004" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12005" spans="1:2">
+      <c r="A12005" s="28">
+        <v>4147</v>
+      </c>
+      <c r="B12005" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12006" spans="1:2">
+      <c r="A12006" s="28">
+        <v>4128</v>
+      </c>
+      <c r="B12006" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12007" spans="1:2">
+      <c r="A12007" s="28">
+        <v>3938</v>
+      </c>
+      <c r="B12007" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12008" spans="1:2">
+      <c r="A12008" s="28">
+        <v>4162</v>
+      </c>
+      <c r="B12008" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12009" spans="1:2">
+      <c r="A12009" s="28">
+        <v>3467</v>
+      </c>
+      <c r="B12009" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12010" spans="1:2">
+      <c r="A12010" s="28">
+        <v>4120</v>
+      </c>
+      <c r="B12010" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12011" spans="1:2">
+      <c r="A12011" s="28">
+        <v>4122</v>
+      </c>
+      <c r="B12011" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12012" spans="1:2">
+      <c r="A12012" s="28">
+        <v>4119</v>
+      </c>
+      <c r="B12012" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12013" spans="1:2">
+      <c r="A12013" s="28">
+        <v>1099</v>
+      </c>
+      <c r="B12013" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12014" spans="1:2">
+      <c r="A12014" s="28">
+        <v>2897</v>
+      </c>
+      <c r="B12014" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12015" spans="1:2">
+      <c r="A12015" s="28">
+        <v>1950</v>
+      </c>
+      <c r="B12015" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12016" spans="1:2">
+      <c r="A12016" s="28">
+        <v>4027</v>
+      </c>
+      <c r="B12016" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12017" spans="1:2">
+      <c r="A12017" s="28">
+        <v>2727</v>
+      </c>
+      <c r="B12017" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12018" spans="1:2">
+      <c r="A12018" s="28">
+        <v>2819</v>
+      </c>
+      <c r="B12018" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12019" spans="1:2">
+      <c r="A12019" s="28">
+        <v>3786</v>
+      </c>
+      <c r="B12019" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12020" spans="1:2">
+      <c r="A12020" s="28">
+        <v>276</v>
+      </c>
+      <c r="B12020" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12021" spans="1:2">
+      <c r="A12021" s="28">
+        <v>794</v>
+      </c>
+      <c r="B12021" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12022" spans="1:2">
+      <c r="A12022" s="28">
+        <v>2778</v>
+      </c>
+      <c r="B12022" s="27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12023" spans="1:2">
+      <c r="A12023" s="28">
+        <v>1586</v>
+      </c>
+      <c r="B12023" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12024" spans="1:2">
+      <c r="A12024" s="28">
+        <v>2471</v>
+      </c>
+      <c r="B12024" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12025" spans="1:2">
+      <c r="A12025" s="28">
+        <v>2542</v>
+      </c>
+      <c r="B12025" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12026" spans="1:2">
+      <c r="A12026" s="28">
+        <v>1875</v>
+      </c>
+      <c r="B12026" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12027" spans="1:2">
+      <c r="A12027" s="28">
+        <v>3263</v>
+      </c>
+      <c r="B12027" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12028" spans="1:2">
+      <c r="A12028" s="28">
+        <v>938</v>
+      </c>
+      <c r="B12028" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12029" spans="1:2">
+      <c r="A12029" s="28">
+        <v>3660</v>
+      </c>
+      <c r="B12029" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12030" spans="1:2">
+      <c r="A12030" s="28">
+        <v>1980</v>
+      </c>
+      <c r="B12030" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12031" spans="1:2">
+      <c r="A12031" s="28">
+        <v>3297</v>
+      </c>
+      <c r="B12031" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12032" spans="1:2">
+      <c r="A12032" s="28">
+        <v>659</v>
+      </c>
+      <c r="B12032" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12033" spans="1:2">
+      <c r="A12033" s="28">
+        <v>1689</v>
+      </c>
+      <c r="B12033" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12034" spans="1:2">
+      <c r="A12034" s="28">
+        <v>3295</v>
+      </c>
+      <c r="B12034" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12035" spans="1:2">
+      <c r="A12035" s="28">
+        <v>358</v>
+      </c>
+      <c r="B12035" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12036" spans="1:2">
+      <c r="A12036" s="28">
+        <v>3857</v>
+      </c>
+      <c r="B12036" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12037" spans="1:2">
+      <c r="A12037" s="28">
+        <v>3727</v>
+      </c>
+      <c r="B12037" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12038" spans="1:2">
+      <c r="A12038" s="28">
+        <v>1260</v>
+      </c>
+      <c r="B12038" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12039" spans="1:2">
+      <c r="A12039" s="28">
+        <v>3328</v>
+      </c>
+      <c r="B12039" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12040" spans="1:2">
+      <c r="A12040" s="28">
+        <v>2441</v>
+      </c>
+      <c r="B12040" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12041" spans="1:2">
+      <c r="A12041" s="28">
+        <v>3709</v>
+      </c>
+      <c r="B12041" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12042" spans="1:2">
+      <c r="A12042" s="28">
+        <v>2094</v>
+      </c>
+      <c r="B12042" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12043" spans="1:2">
+      <c r="A12043" s="28">
+        <v>3377</v>
+      </c>
+      <c r="B12043" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12044" spans="1:2">
+      <c r="A12044" s="28">
+        <v>3078</v>
+      </c>
+      <c r="B12044" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12045" spans="1:2">
+      <c r="A12045" s="28">
+        <v>3527</v>
+      </c>
+      <c r="B12045" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12046" spans="1:2">
+      <c r="A12046" s="28">
+        <v>3387</v>
+      </c>
+      <c r="B12046" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12047" spans="1:2">
+      <c r="A12047" s="28">
+        <v>3072</v>
+      </c>
+      <c r="B12047" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12048" spans="1:2">
+      <c r="A12048" s="28">
+        <v>3505</v>
+      </c>
+      <c r="B12048" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12049" spans="1:2">
+      <c r="A12049" s="28">
+        <v>3316</v>
+      </c>
+      <c r="B12049" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12050" spans="1:2">
+      <c r="A12050" s="28">
+        <v>1752</v>
+      </c>
+      <c r="B12050" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12051" spans="1:2">
+      <c r="A12051" s="28">
+        <v>3403</v>
+      </c>
+      <c r="B12051" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12052" spans="1:2">
+      <c r="A12052" s="28">
+        <v>2743</v>
+      </c>
+      <c r="B12052" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12053" spans="1:2">
+      <c r="A12053" s="28">
+        <v>3435</v>
+      </c>
+      <c r="B12053" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12054" spans="1:2">
+      <c r="A12054" s="28">
+        <v>364</v>
+      </c>
+      <c r="B12054" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12055" spans="1:2">
+      <c r="A12055" s="28">
+        <v>3191</v>
+      </c>
+      <c r="B12055" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12056" spans="1:2">
+      <c r="A12056" s="28">
+        <v>3213</v>
+      </c>
+      <c r="B12056" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12057" spans="1:2">
+      <c r="A12057" s="28">
+        <v>2922</v>
+      </c>
+      <c r="B12057" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12058" spans="1:2">
+      <c r="A12058" s="28">
+        <v>3800</v>
+      </c>
+      <c r="B12058" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12059" spans="1:2">
+      <c r="A12059" s="28">
+        <v>3677</v>
+      </c>
+      <c r="B12059" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12060" spans="1:2">
+      <c r="A12060" s="28">
+        <v>1384</v>
+      </c>
+      <c r="B12060" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12061" spans="1:2">
+      <c r="A12061" s="28">
+        <v>3463</v>
+      </c>
+      <c r="B12061" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12062" spans="1:2">
+      <c r="A12062" s="28">
+        <v>1893</v>
+      </c>
+      <c r="B12062" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12063" spans="1:2">
+      <c r="A12063" s="28">
+        <v>4026</v>
+      </c>
+      <c r="B12063" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12064" spans="1:2">
+      <c r="A12064" s="28">
+        <v>3671</v>
+      </c>
+      <c r="B12064" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12065" spans="1:2">
+      <c r="A12065" s="28">
+        <v>2345</v>
+      </c>
+      <c r="B12065" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12066" spans="1:2">
+      <c r="A12066" s="28">
+        <v>3201</v>
+      </c>
+      <c r="B12066" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12067" spans="1:2">
+      <c r="A12067" s="28">
+        <v>3966</v>
+      </c>
+      <c r="B12067" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12068" spans="1:2">
+      <c r="A12068" s="28">
+        <v>2324</v>
+      </c>
+      <c r="B12068" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12069" spans="1:2">
+      <c r="A12069" s="28">
+        <v>3538</v>
+      </c>
+      <c r="B12069" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12070" spans="1:2">
+      <c r="A12070" s="28">
+        <v>466</v>
+      </c>
+      <c r="B12070" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12071" spans="1:2">
+      <c r="A12071" s="28">
+        <v>1758</v>
+      </c>
+      <c r="B12071" s="27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12072" spans="1:2">
+      <c r="A12072" s="28">
+        <v>781</v>
+      </c>
+      <c r="B12072" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12073" spans="1:2">
+      <c r="A12073" s="28">
+        <v>877</v>
+      </c>
+      <c r="B12073" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12074" spans="1:2">
+      <c r="A12074" s="28">
+        <v>1048</v>
+      </c>
+      <c r="B12074" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12075" spans="1:2">
+      <c r="A12075" s="28">
+        <v>1271</v>
+      </c>
+      <c r="B12075" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12076" spans="1:2">
+      <c r="A12076" s="28">
+        <v>1652</v>
+      </c>
+      <c r="B12076" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12077" spans="1:2">
+      <c r="A12077" s="28">
+        <v>1673</v>
+      </c>
+      <c r="B12077" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12078" spans="1:2">
+      <c r="A12078" s="28">
+        <v>1743</v>
+      </c>
+      <c r="B12078" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12079" spans="1:2">
+      <c r="A12079" s="28">
+        <v>1868</v>
+      </c>
+      <c r="B12079" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12080" spans="1:2">
+      <c r="A12080" s="28">
+        <v>1910</v>
+      </c>
+      <c r="B12080" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12081" spans="1:2">
+      <c r="A12081" s="28">
+        <v>2090</v>
+      </c>
+      <c r="B12081" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12082" spans="1:2">
+      <c r="A12082" s="28">
+        <v>54</v>
+      </c>
+      <c r="B12082" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12083" spans="1:2">
+      <c r="A12083" s="28">
+        <v>145</v>
+      </c>
+      <c r="B12083" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12084" spans="1:2">
+      <c r="A12084" s="28">
+        <v>159</v>
+      </c>
+      <c r="B12084" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12085" spans="1:2">
+      <c r="A12085" s="28">
+        <v>171</v>
+      </c>
+      <c r="B12085" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12086" spans="1:2">
+      <c r="A12086" s="28">
+        <v>174</v>
+      </c>
+      <c r="B12086" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12087" spans="1:2">
+      <c r="A12087" s="28">
+        <v>175</v>
+      </c>
+      <c r="B12087" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12088" spans="1:2">
+      <c r="A12088" s="28">
+        <v>178</v>
+      </c>
+      <c r="B12088" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12089" spans="1:2">
+      <c r="A12089" s="28">
+        <v>188</v>
+      </c>
+      <c r="B12089" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12090" spans="1:2">
+      <c r="A12090" s="28">
+        <v>236</v>
+      </c>
+      <c r="B12090" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12091" spans="1:2">
+      <c r="A12091" s="28">
+        <v>237</v>
+      </c>
+      <c r="B12091" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12092" spans="1:2">
+      <c r="A12092" s="28">
+        <v>3964</v>
+      </c>
+      <c r="B12092" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12093" spans="1:2">
+      <c r="A12093" s="28">
+        <v>3966</v>
+      </c>
+      <c r="B12093" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12094" spans="1:2">
+      <c r="A12094" s="28">
+        <v>3965</v>
+      </c>
+      <c r="B12094" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12095" spans="1:2">
+      <c r="A12095" s="28">
+        <v>4026</v>
+      </c>
+      <c r="B12095" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12096" spans="1:2">
+      <c r="A12096" s="28">
+        <v>3321</v>
+      </c>
+      <c r="B12096" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12097" spans="1:2">
+      <c r="A12097" s="28">
+        <v>3232</v>
+      </c>
+      <c r="B12097" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12098" spans="1:2">
+      <c r="A12098" s="28">
+        <v>3036</v>
+      </c>
+      <c r="B12098" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12099" spans="1:2">
+      <c r="A12099" s="28">
+        <v>3975</v>
+      </c>
+      <c r="B12099" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12100" spans="1:2">
+      <c r="A12100" s="28">
+        <v>3611</v>
+      </c>
+      <c r="B12100" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12101" spans="1:2">
+      <c r="A12101" s="28">
+        <v>3249</v>
+      </c>
+      <c r="B12101" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12102" spans="1:2">
+      <c r="A12102" s="28">
+        <v>3440</v>
+      </c>
+      <c r="B12102" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12103" spans="1:2">
+      <c r="A12103" s="28">
+        <v>3942</v>
+      </c>
+      <c r="B12103" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12104" spans="1:2">
+      <c r="A12104" s="28">
+        <v>3907</v>
+      </c>
+      <c r="B12104" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12105" spans="1:2">
+      <c r="A12105" s="28">
+        <v>3441</v>
+      </c>
+      <c r="B12105" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12106" spans="1:2">
+      <c r="A12106" s="28">
+        <v>3923</v>
+      </c>
+      <c r="B12106" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12107" spans="1:2">
+      <c r="A12107" s="28">
+        <v>3811</v>
+      </c>
+      <c r="B12107" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12108" spans="1:2">
+      <c r="A12108" s="28">
+        <v>3881</v>
+      </c>
+      <c r="B12108" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12109" spans="1:2">
+      <c r="A12109" s="28">
+        <v>2601</v>
+      </c>
+      <c r="B12109" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12110" spans="1:2">
+      <c r="A12110" s="28">
+        <v>2508</v>
+      </c>
+      <c r="B12110" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12111" spans="1:2">
+      <c r="A12111" s="28">
+        <v>3847</v>
+      </c>
+      <c r="B12111" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12112" spans="1:2">
+      <c r="A12112" s="28">
+        <v>2466</v>
+      </c>
+      <c r="B12112" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12113" spans="1:2">
+      <c r="A12113" s="28">
+        <v>2468</v>
+      </c>
+      <c r="B12113" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12114" spans="1:2">
+      <c r="A12114" s="28">
+        <v>2566</v>
+      </c>
+      <c r="B12114" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12115" spans="1:2">
+      <c r="A12115" s="28">
+        <v>2973</v>
+      </c>
+      <c r="B12115" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12116" spans="1:2">
+      <c r="A12116" s="28">
+        <v>2974</v>
+      </c>
+      <c r="B12116" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12117" spans="1:2">
+      <c r="A12117" s="28">
+        <v>3060</v>
+      </c>
+      <c r="B12117" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12118" spans="1:2">
+      <c r="A12118" s="28">
+        <v>3089</v>
+      </c>
+      <c r="B12118" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12119" spans="1:2">
+      <c r="A12119" s="28">
+        <v>3090</v>
+      </c>
+      <c r="B12119" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12120" spans="1:2">
+      <c r="A12120" s="28">
+        <v>3136</v>
+      </c>
+      <c r="B12120" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12121" spans="1:2">
+      <c r="A12121" s="28">
+        <v>3137</v>
+      </c>
+      <c r="B12121" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12122" spans="1:2">
+      <c r="A12122" s="28">
+        <v>1294</v>
+      </c>
+      <c r="B12122" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12123" spans="1:2">
+      <c r="A12123" s="28">
+        <v>3568</v>
+      </c>
+      <c r="B12123" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12124" spans="1:2">
+      <c r="A12124" s="28">
+        <v>2187</v>
+      </c>
+      <c r="B12124" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12125" spans="1:2">
+      <c r="A12125" s="28">
+        <v>3785</v>
+      </c>
+      <c r="B12125" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12126" spans="1:2">
+      <c r="A12126" s="28">
+        <v>3853</v>
+      </c>
+      <c r="B12126" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12127" spans="1:2">
+      <c r="A12127" s="28">
+        <v>3858</v>
+      </c>
+      <c r="B12127" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12128" spans="1:2">
+      <c r="A12128" s="28">
+        <v>432</v>
+      </c>
+      <c r="B12128" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12129" spans="1:2">
+      <c r="A12129" s="28">
+        <v>152</v>
+      </c>
+      <c r="B12129" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12130" spans="1:2">
+      <c r="A12130" s="28">
+        <v>610</v>
+      </c>
+      <c r="B12130" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12131" spans="1:2">
+      <c r="A12131" s="28">
+        <v>3058</v>
+      </c>
+      <c r="B12131" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12132" spans="1:2">
+      <c r="A12132" s="28">
+        <v>3957</v>
+      </c>
+      <c r="B12132" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12133" spans="1:2">
+      <c r="A12133" s="28">
+        <v>4062</v>
+      </c>
+      <c r="B12133" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12134" spans="1:2">
+      <c r="A12134" s="28">
+        <v>3045</v>
+      </c>
+      <c r="B12134" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12135" spans="1:2">
+      <c r="A12135" s="28">
+        <v>4074</v>
+      </c>
+      <c r="B12135" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12136" spans="1:2">
+      <c r="A12136" s="28">
+        <v>3044</v>
+      </c>
+      <c r="B12136" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12137" spans="1:2">
+      <c r="A12137" s="28">
+        <v>4072</v>
+      </c>
+      <c r="B12137" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12138" spans="1:2">
+      <c r="A12138" s="28">
+        <v>1059</v>
+      </c>
+      <c r="B12138" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12139" spans="1:2">
+      <c r="A12139" s="28">
+        <v>3515</v>
+      </c>
+      <c r="B12139" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12140" spans="1:2">
+      <c r="A12140" s="28">
+        <v>4064</v>
+      </c>
+      <c r="B12140" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12141" spans="1:2">
+      <c r="A12141" s="28">
+        <v>4075</v>
+      </c>
+      <c r="B12141" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12142" spans="1:2">
+      <c r="A12142" s="28">
+        <v>3870</v>
+      </c>
+      <c r="B12142" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12143" spans="1:2">
+      <c r="A12143" s="28">
+        <v>3766</v>
+      </c>
+      <c r="B12143" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12144" spans="1:2">
+      <c r="A12144" s="28">
+        <v>3692</v>
+      </c>
+      <c r="B12144" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12145" spans="1:2">
+      <c r="A12145" s="28">
+        <v>3763</v>
+      </c>
+      <c r="B12145" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12146" spans="1:2">
+      <c r="A12146" s="28">
+        <v>2463</v>
+      </c>
+      <c r="B12146" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12147" spans="1:2">
+      <c r="A12147" s="28">
+        <v>1953</v>
+      </c>
+      <c r="B12147" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12148" spans="1:2">
+      <c r="A12148" s="28">
+        <v>4007</v>
+      </c>
+      <c r="B12148" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12149" spans="1:2">
+      <c r="A12149" s="28">
+        <v>3259</v>
+      </c>
+      <c r="B12149" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12150" spans="1:2">
+      <c r="A12150" s="28">
+        <v>3894</v>
+      </c>
+      <c r="B12150" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12151" spans="1:2">
+      <c r="A12151" s="28">
+        <v>4090</v>
+      </c>
+      <c r="B12151" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12152" spans="1:2">
+      <c r="A12152" s="28">
+        <v>4089</v>
+      </c>
+      <c r="B12152" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12153" spans="1:2">
+      <c r="A12153" s="28">
+        <v>4022</v>
+      </c>
+      <c r="B12153" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12154" spans="1:2">
+      <c r="A12154" s="28">
+        <v>4097</v>
+      </c>
+      <c r="B12154" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12155" spans="1:2">
+      <c r="A12155" s="28">
+        <v>4086</v>
+      </c>
+      <c r="B12155" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12156" spans="1:2">
+      <c r="A12156" s="28">
+        <v>4147</v>
+      </c>
+      <c r="B12156" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12157" spans="1:2">
+      <c r="A12157" s="28">
+        <v>4128</v>
+      </c>
+      <c r="B12157" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12158" spans="1:2">
+      <c r="A12158" s="28">
+        <v>3654</v>
+      </c>
+      <c r="B12158" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12159" spans="1:2">
+      <c r="A12159" s="28">
+        <v>3938</v>
+      </c>
+      <c r="B12159" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12160" spans="1:2">
+      <c r="A12160" s="28">
+        <v>4073</v>
+      </c>
+      <c r="B12160" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12161" spans="1:2">
+      <c r="A12161" s="28">
+        <v>3786</v>
+      </c>
+      <c r="B12161" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12162" spans="1:2">
+      <c r="A12162" s="28">
+        <v>3922</v>
+      </c>
+      <c r="B12162" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12163" spans="1:2">
+      <c r="A12163" s="28">
+        <v>520</v>
+      </c>
+      <c r="B12163" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12164" spans="1:2">
+      <c r="A12164" s="28">
+        <v>3953</v>
+      </c>
+      <c r="B12164" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12165" spans="1:2">
+      <c r="A12165" s="28">
+        <v>3992</v>
+      </c>
+      <c r="B12165" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12166" spans="1:2">
+      <c r="A12166" s="28">
+        <v>1378</v>
+      </c>
+      <c r="B12166" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12167" spans="1:2">
+      <c r="A12167" s="28">
+        <v>4079</v>
+      </c>
+      <c r="B12167" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12168" spans="1:2">
+      <c r="A12168" s="28">
+        <v>2851</v>
+      </c>
+      <c r="B12168" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12169" spans="1:2">
+      <c r="A12169" s="28">
+        <v>4046</v>
+      </c>
+      <c r="B12169" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12170" spans="1:2">
+      <c r="A12170" s="28">
+        <v>2458</v>
+      </c>
+      <c r="B12170" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12171" spans="1:2">
+      <c r="A12171" s="28">
+        <v>3671</v>
+      </c>
+      <c r="B12171" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12172" spans="1:2">
+      <c r="A12172" s="28">
+        <v>1551</v>
+      </c>
+      <c r="B12172" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12173" spans="1:2">
+      <c r="A12173" s="28">
+        <v>3954</v>
+      </c>
+      <c r="B12173" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12174" spans="1:2">
+      <c r="A12174" s="28">
+        <v>3966</v>
+      </c>
+      <c r="B12174" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12175" spans="1:2">
+      <c r="A12175" s="28">
+        <v>3964</v>
+      </c>
+      <c r="B12175" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12176" spans="1:2">
+      <c r="A12176" s="28">
+        <v>3965</v>
+      </c>
+      <c r="B12176" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12177" spans="1:2">
+      <c r="A12177" s="28">
+        <v>3928</v>
+      </c>
+      <c r="B12177" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12178" spans="1:2">
+      <c r="A12178" s="28">
+        <v>3321</v>
+      </c>
+      <c r="B12178" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12179" spans="1:2">
+      <c r="A12179" s="28">
+        <v>3343</v>
+      </c>
+      <c r="B12179" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12180" spans="1:2">
+      <c r="A12180" s="28">
+        <v>3036</v>
+      </c>
+      <c r="B12180" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12181" spans="1:2">
+      <c r="A12181" s="28">
+        <v>18</v>
+      </c>
+      <c r="B12181" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12182" spans="1:2">
+      <c r="A12182" s="28">
+        <v>46</v>
+      </c>
+      <c r="B12182" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12183" spans="1:2">
+      <c r="A12183" s="28">
+        <v>54</v>
+      </c>
+      <c r="B12183" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12184" spans="1:2">
+      <c r="A12184" s="28">
+        <v>89</v>
+      </c>
+      <c r="B12184" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12185" spans="1:2">
+      <c r="A12185" s="28">
+        <v>123</v>
+      </c>
+      <c r="B12185" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12186" spans="1:2">
+      <c r="A12186" s="28">
+        <v>131</v>
+      </c>
+      <c r="B12186" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12187" spans="1:2">
+      <c r="A12187" s="28">
+        <v>147</v>
+      </c>
+      <c r="B12187" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12188" spans="1:2">
+      <c r="A12188" s="28">
+        <v>150</v>
+      </c>
+      <c r="B12188" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12189" spans="1:2">
+      <c r="A12189" s="28">
+        <v>159</v>
+      </c>
+      <c r="B12189" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12190" spans="1:2">
+      <c r="A12190" s="28">
+        <v>172</v>
+      </c>
+      <c r="B12190" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12191" spans="1:2">
+      <c r="A12191" s="28">
+        <v>3988</v>
+      </c>
+      <c r="B12191" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12192" spans="1:2">
+      <c r="A12192" s="28">
+        <v>4026</v>
+      </c>
+      <c r="B12192" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12193" spans="1:2">
+      <c r="A12193" s="28">
+        <v>2566</v>
+      </c>
+      <c r="B12193" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12194" spans="1:2">
+      <c r="A12194" s="28">
+        <v>3975</v>
+      </c>
+      <c r="B12194" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12195" spans="1:2">
+      <c r="A12195" s="28">
+        <v>2090</v>
+      </c>
+      <c r="B12195" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12196" spans="1:2">
+      <c r="A12196" s="28">
+        <v>1743</v>
+      </c>
+      <c r="B12196" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12197" spans="1:2">
+      <c r="A12197" s="28">
+        <v>3249</v>
+      </c>
+      <c r="B12197" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12198" spans="1:2">
+      <c r="A12198" s="28">
+        <v>684</v>
+      </c>
+      <c r="B12198" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12199" spans="1:2">
+      <c r="A12199" s="28">
+        <v>1673</v>
+      </c>
+      <c r="B12199" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12200" spans="1:2">
+      <c r="A12200" s="28">
+        <v>2947</v>
+      </c>
+      <c r="B12200" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12201" spans="1:2">
+      <c r="A12201" s="28">
+        <v>3863</v>
+      </c>
+      <c r="B12201" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12202" spans="1:2">
+      <c r="A12202" s="28">
+        <v>3898</v>
+      </c>
+      <c r="B12202" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12203" spans="1:2">
+      <c r="A12203" s="28">
+        <v>1294</v>
+      </c>
+      <c r="B12203" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12204" spans="1:2">
+      <c r="A12204" s="28">
+        <v>3440</v>
+      </c>
+      <c r="B12204" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12205" spans="1:2">
+      <c r="A12205" s="28">
+        <v>3942</v>
+      </c>
+      <c r="B12205" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12206" spans="1:2">
+      <c r="A12206" s="28">
+        <v>1478</v>
+      </c>
+      <c r="B12206" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12207" spans="1:2">
+      <c r="A12207" s="28">
+        <v>3630</v>
+      </c>
+      <c r="B12207" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12208" spans="1:2">
+      <c r="A12208" s="28">
+        <v>3915</v>
+      </c>
+      <c r="B12208" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12209" spans="1:2">
+      <c r="A12209" s="28">
+        <v>1784</v>
+      </c>
+      <c r="B12209" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12210" spans="1:2">
+      <c r="A12210" s="28">
+        <v>3722</v>
+      </c>
+      <c r="B12210" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12211" spans="1:2">
+      <c r="A12211" s="28">
+        <v>877</v>
+      </c>
+      <c r="B12211" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12212" spans="1:2">
+      <c r="A12212" s="28">
+        <v>1048</v>
+      </c>
+      <c r="B12212" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12213" spans="1:2">
+      <c r="A12213" s="28">
+        <v>1271</v>
+      </c>
+      <c r="B12213" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12214" spans="1:2">
+      <c r="A12214" s="28">
+        <v>1652</v>
+      </c>
+      <c r="B12214" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12215" spans="1:2">
+      <c r="A12215" s="28">
+        <v>1716</v>
+      </c>
+      <c r="B12215" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12216" spans="1:2">
+      <c r="A12216" s="28">
+        <v>1910</v>
+      </c>
+      <c r="B12216" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12217" spans="1:2">
+      <c r="A12217" s="28">
+        <v>2468</v>
+      </c>
+      <c r="B12217" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12218" spans="1:2">
+      <c r="A12218" s="28">
+        <v>2948</v>
+      </c>
+      <c r="B12218" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12219" spans="1:2">
+      <c r="A12219" s="28">
+        <v>2972</v>
+      </c>
+      <c r="B12219" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12220" spans="1:2">
+      <c r="A12220" s="28">
+        <v>2974</v>
+      </c>
+      <c r="B12220" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12221" spans="1:2">
+      <c r="A12221" s="28">
+        <v>3814</v>
+      </c>
+      <c r="B12221" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12222" spans="1:2">
+      <c r="A12222" s="28">
+        <v>743</v>
+      </c>
+      <c r="B12222" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12223" spans="1:2">
+      <c r="A12223" s="28">
+        <v>907</v>
+      </c>
+      <c r="B12223" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12224" spans="1:2">
+      <c r="A12224" s="28">
+        <v>3548</v>
+      </c>
+      <c r="B12224" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12225" spans="1:2">
+      <c r="A12225" s="28">
+        <v>875</v>
+      </c>
+      <c r="B12225" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12226" spans="1:2">
+      <c r="A12226" s="28">
+        <v>3922</v>
+      </c>
+      <c r="B12226" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12227" spans="1:2">
+      <c r="A12227" s="28">
+        <v>3786</v>
+      </c>
+      <c r="B12227" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12228" spans="1:2">
+      <c r="A12228" s="28">
+        <v>3122</v>
+      </c>
+      <c r="B12228" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12229" spans="1:2">
+      <c r="A12229" s="28">
+        <v>3123</v>
+      </c>
+      <c r="B12229" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12230" spans="1:2">
+      <c r="A12230" s="28">
+        <v>3957</v>
+      </c>
+      <c r="B12230" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12231" spans="1:2">
+      <c r="A12231" s="28">
+        <v>4062</v>
+      </c>
+      <c r="B12231" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12232" spans="1:2">
+      <c r="A12232" s="28">
+        <v>4037</v>
+      </c>
+      <c r="B12232" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12233" spans="1:2">
+      <c r="A12233" s="28">
+        <v>3045</v>
+      </c>
+      <c r="B12233" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12234" spans="1:2">
+      <c r="A12234" s="28">
+        <v>4074</v>
+      </c>
+      <c r="B12234" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12235" spans="1:2">
+      <c r="A12235" s="28">
+        <v>3044</v>
+      </c>
+      <c r="B12235" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12236" spans="1:2">
+      <c r="A12236" s="28">
+        <v>4072</v>
+      </c>
+      <c r="B12236" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12237" spans="1:2">
+      <c r="A12237" s="28">
+        <v>3515</v>
+      </c>
+      <c r="B12237" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12238" spans="1:2">
+      <c r="A12238" s="28">
+        <v>3135</v>
+      </c>
+      <c r="B12238" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12239" spans="1:2">
+      <c r="A12239" s="28">
+        <v>3088</v>
+      </c>
+      <c r="B12239" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12240" spans="1:2">
+      <c r="A12240" s="28">
+        <v>3785</v>
+      </c>
+      <c r="B12240" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12241" spans="1:2">
+      <c r="A12241" s="28">
+        <v>866</v>
+      </c>
+      <c r="B12241" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12242" spans="1:2">
+      <c r="A12242" s="28">
+        <v>3561</v>
+      </c>
+      <c r="B12242" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12243" spans="1:2">
+      <c r="A12243" s="28">
+        <v>3907</v>
+      </c>
+      <c r="B12243" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12244" spans="1:2">
+      <c r="A12244" s="28">
+        <v>3255</v>
+      </c>
+      <c r="B12244" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12245" spans="1:2">
+      <c r="A12245" s="28">
+        <v>3847</v>
+      </c>
+      <c r="B12245" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12246" spans="1:2">
+      <c r="A12246" s="28">
+        <v>3549</v>
+      </c>
+      <c r="B12246" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12247" spans="1:2">
+      <c r="A12247" s="28">
+        <v>3950</v>
+      </c>
+      <c r="B12247" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12248" spans="1:2">
+      <c r="A12248" s="28">
+        <v>2142</v>
+      </c>
+      <c r="B12248" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12249" spans="1:2">
+      <c r="A12249" s="28">
+        <v>1328</v>
+      </c>
+      <c r="B12249" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12250" spans="1:2">
+      <c r="A12250" s="28">
+        <v>4090</v>
+      </c>
+      <c r="B12250" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12251" spans="1:2">
+      <c r="A12251" s="28">
+        <v>4089</v>
+      </c>
+      <c r="B12251" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12252" spans="1:2">
+      <c r="A12252" s="28">
+        <v>4022</v>
+      </c>
+      <c r="B12252" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12253" spans="1:2">
+      <c r="A12253" s="28">
+        <v>4097</v>
+      </c>
+      <c r="B12253" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12254" spans="1:2">
+      <c r="A12254" s="28">
+        <v>4064</v>
+      </c>
+      <c r="B12254" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12255" spans="1:2">
+      <c r="A12255" s="28">
+        <v>4172</v>
+      </c>
+      <c r="B12255" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12256" spans="1:2">
+      <c r="A12256" s="28">
+        <v>4086</v>
+      </c>
+      <c r="B12256" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12257" spans="1:2">
+      <c r="A12257" s="28">
+        <v>4132</v>
+      </c>
+      <c r="B12257" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12258" spans="1:2">
+      <c r="A12258" s="28">
+        <v>4147</v>
+      </c>
+      <c r="B12258" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12259" spans="1:2">
+      <c r="A12259" s="28">
+        <v>4128</v>
+      </c>
+      <c r="B12259" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12260" spans="1:2">
+      <c r="A12260" s="28">
+        <v>3568</v>
+      </c>
+      <c r="B12260" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12261" spans="1:2">
+      <c r="A12261" s="28">
+        <v>1956</v>
+      </c>
+      <c r="B12261" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12262" spans="1:2">
+      <c r="A12262" s="28">
+        <v>3763</v>
+      </c>
+      <c r="B12262" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12263" spans="1:2">
+      <c r="A12263" s="28">
+        <v>1951</v>
+      </c>
+      <c r="B12263" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12264" spans="1:2">
+      <c r="A12264" s="28">
+        <v>520</v>
+      </c>
+      <c r="B12264" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12265" spans="1:2">
+      <c r="A12265" s="28">
+        <v>1583</v>
+      </c>
+      <c r="B12265" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12266" spans="1:2">
+      <c r="A12266" s="28">
+        <v>2758</v>
+      </c>
+      <c r="B12266" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12267" spans="1:2">
+      <c r="A12267" s="28">
+        <v>874</v>
+      </c>
+      <c r="B12267" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12268" spans="1:2">
+      <c r="A12268" s="28">
+        <v>2912</v>
+      </c>
+      <c r="B12268" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12269" spans="1:2">
+      <c r="A12269" s="28">
+        <v>3721</v>
+      </c>
+      <c r="B12269" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12270" spans="1:2">
+      <c r="A12270" s="28">
+        <v>3386</v>
+      </c>
+      <c r="B12270" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12271" spans="1:2">
+      <c r="A12271" s="28">
+        <v>364</v>
+      </c>
+      <c r="B12271" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12272" spans="1:2">
+      <c r="A12272" s="28">
+        <v>3213</v>
+      </c>
+      <c r="B12272" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12273" spans="1:2">
+      <c r="A12273" s="28">
+        <v>4026</v>
+      </c>
+      <c r="B12273" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12274" spans="1:2">
+      <c r="A12274" s="28">
+        <v>2423</v>
+      </c>
+      <c r="B12274" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12275" spans="1:2">
+      <c r="A12275" s="28">
+        <v>3297</v>
+      </c>
+      <c r="B12275" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12276" spans="1:2">
+      <c r="A12276" s="28">
+        <v>3954</v>
+      </c>
+      <c r="B12276" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12277" spans="1:2">
+      <c r="A12277" s="28">
+        <v>3133</v>
+      </c>
+      <c r="B12277" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12278" spans="1:2">
+      <c r="A12278" s="28">
+        <v>1480</v>
+      </c>
+      <c r="B12278" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12279" spans="1:2">
+      <c r="A12279" s="28">
+        <v>2260</v>
+      </c>
+      <c r="B12279" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12280" spans="1:2">
+      <c r="A12280" s="28">
+        <v>2743</v>
+      </c>
+      <c r="B12280" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12281" spans="1:2">
+      <c r="A12281" s="28">
+        <v>2094</v>
+      </c>
+      <c r="B12281" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12282" spans="1:2">
+      <c r="A12282" s="28">
+        <v>3377</v>
+      </c>
+      <c r="B12282" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12283" spans="1:2">
+      <c r="A12283" s="28">
+        <v>1758</v>
+      </c>
+      <c r="B12283" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12284" spans="1:2">
+      <c r="A12284" s="28">
+        <v>3309</v>
+      </c>
+      <c r="B12284" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12285" spans="1:2">
+      <c r="A12285" s="28">
+        <v>2407</v>
+      </c>
+      <c r="B12285" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12286" spans="1:2">
+      <c r="A12286" s="28">
+        <v>4062</v>
+      </c>
+      <c r="B12286" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12287" spans="1:2">
+      <c r="A12287" s="28">
+        <v>292</v>
+      </c>
+      <c r="B12287" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12288" spans="1:2">
+      <c r="A12288" s="28">
+        <v>789</v>
+      </c>
+      <c r="B12288" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12289" spans="1:2">
+      <c r="A12289" s="28">
+        <v>2298</v>
+      </c>
+      <c r="B12289" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12290" spans="1:2">
+      <c r="A12290" s="27">
+        <v>1609</v>
+      </c>
+      <c r="B12290" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12291" spans="1:2">
+      <c r="A12291" s="27">
+        <v>3333</v>
+      </c>
+      <c r="B12291" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12292" spans="1:2">
+      <c r="A12292" s="27">
+        <v>3500</v>
+      </c>
+      <c r="B12292" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12293" spans="1:2">
+      <c r="A12293" s="27">
+        <v>1334</v>
+      </c>
+      <c r="B12293" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12294" spans="1:2">
+      <c r="A12294" s="27">
+        <v>1833</v>
+      </c>
+      <c r="B12294" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12295" spans="1:2">
+      <c r="A12295" s="27">
+        <v>746</v>
+      </c>
+      <c r="B12295" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12296" spans="1:2">
+      <c r="A12296" s="27">
+        <v>2130</v>
+      </c>
+      <c r="B12296" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12297" spans="1:2">
+      <c r="A12297" s="27">
+        <v>1438</v>
+      </c>
+      <c r="B12297" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12298" spans="1:2">
+      <c r="A12298" s="27">
+        <v>3405</v>
+      </c>
+      <c r="B12298" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12299" spans="1:2">
+      <c r="A12299" s="27">
+        <v>254</v>
+      </c>
+      <c r="B12299" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12300" spans="1:2">
+      <c r="A12300" s="27">
+        <v>1426</v>
+      </c>
+      <c r="B12300" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12301" spans="1:2">
+      <c r="A12301" s="27">
+        <v>2258</v>
+      </c>
+      <c r="B12301" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12302" spans="1:2">
+      <c r="A12302" s="27">
+        <v>1782</v>
+      </c>
+      <c r="B12302" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12303" spans="1:2">
+      <c r="A12303" s="27">
+        <v>3800</v>
+      </c>
+      <c r="B12303" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12304" spans="1:2">
+      <c r="A12304" s="27">
+        <v>1980</v>
+      </c>
+      <c r="B12304" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12305" spans="1:2">
+      <c r="A12305" s="27">
+        <v>2821</v>
+      </c>
+      <c r="B12305" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12306" spans="1:2">
+      <c r="A12306" s="27">
+        <v>2028</v>
+      </c>
+      <c r="B12306" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12307" spans="1:2">
+      <c r="A12307" s="27">
+        <v>1643</v>
+      </c>
+      <c r="B12307" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12308" spans="1:2">
+      <c r="A12308" s="27">
+        <v>1713</v>
+      </c>
+      <c r="B12308" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12309" spans="1:2">
+      <c r="A12309" s="27">
+        <v>1063</v>
+      </c>
+      <c r="B12309" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12310" spans="1:2">
+      <c r="A12310" s="27">
+        <v>1995</v>
+      </c>
+      <c r="B12310" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12311" spans="1:2">
+      <c r="A12311" s="27">
+        <v>2830</v>
+      </c>
+      <c r="B12311" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12312" spans="1:2">
+      <c r="A12312" s="27">
+        <v>373</v>
+      </c>
+      <c r="B12312" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12313" spans="1:2">
+      <c r="A12313" s="27">
+        <v>851</v>
+      </c>
+      <c r="B12313" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12314" spans="1:2">
+      <c r="A12314" s="27">
+        <v>261</v>
+      </c>
+      <c r="B12314" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12315" spans="1:2">
+      <c r="A12315" s="27">
+        <v>3082</v>
+      </c>
+      <c r="B12315" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12316" spans="1:2">
+      <c r="A12316" s="27">
+        <v>711</v>
+      </c>
+      <c r="B12316" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12317" spans="1:2">
+      <c r="A12317" s="27">
+        <v>2886</v>
+      </c>
+      <c r="B12317" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12318" spans="1:2">
+      <c r="A12318" s="27">
+        <v>1578</v>
+      </c>
+      <c r="B12318" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12319" spans="1:2">
+      <c r="A12319" s="27">
+        <v>85</v>
+      </c>
+      <c r="B12319" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12320" spans="1:2">
+      <c r="A12320" s="27">
+        <v>169</v>
+      </c>
+      <c r="B12320" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12321" spans="1:2">
+      <c r="A12321" s="27">
+        <v>2940</v>
+      </c>
+      <c r="B12321" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12322" spans="1:2">
+      <c r="A12322" s="27">
+        <v>805</v>
+      </c>
+      <c r="B12322" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12323" spans="1:2">
+      <c r="A12323" s="27">
+        <v>2336</v>
+      </c>
+      <c r="B12323" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12324" spans="1:2">
+      <c r="A12324" s="27">
+        <v>3258</v>
+      </c>
+      <c r="B12324" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12325" spans="1:2">
+      <c r="A12325" s="27">
+        <v>727</v>
+      </c>
+      <c r="B12325" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12326" spans="1:2">
+      <c r="A12326" s="27">
+        <v>64</v>
+      </c>
+      <c r="B12326" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12327" spans="1:2">
+      <c r="A12327" s="27">
+        <v>2223</v>
+      </c>
+      <c r="B12327" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12328" spans="1:2">
+      <c r="A12328" s="27">
+        <v>2011</v>
+      </c>
+      <c r="B12328" s="27" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12329" spans="1:2">
+      <c r="A12329" s="27">
+        <v>1731</v>
+      </c>
+      <c r="B12329" s="27" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
